--- a/Documents/Distances.xlsx
+++ b/Documents/Distances.xlsx
@@ -5,15 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Hutson\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Hutson\Source\Repos\CS473FinalProject\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" xr2:uid="{D91A8DBA-E9BB-45E3-84D0-FA2F40E38D3D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7968" activeTab="3" xr2:uid="{D91A8DBA-E9BB-45E3-84D0-FA2F40E38D3D}"/>
   </bookViews>
   <sheets>
     <sheet name="From Johnston" sheetId="1" r:id="rId1"/>
-    <sheet name="From __________" sheetId="2" r:id="rId2"/>
+    <sheet name="From Robinson" sheetId="2" r:id="rId2"/>
+    <sheet name="From the Library" sheetId="3" r:id="rId3"/>
+    <sheet name="From Hendrcks" sheetId="4" r:id="rId4"/>
+    <sheet name="From Stewart" sheetId="5" r:id="rId5"/>
+    <sheet name="From Arend" sheetId="6" r:id="rId6"/>
+    <sheet name="From the HUB" sheetId="7" r:id="rId7"/>
+    <sheet name="From the HUB (2)" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="31">
   <si>
     <t>Library</t>
   </si>
@@ -84,10 +90,40 @@
     <t>Average Walking Speed (feet/minute):</t>
   </si>
   <si>
-    <t>Times (minutes) from ________ to…</t>
+    <t>The Art Building</t>
   </si>
   <si>
-    <t>Distances (feet) from ________ to…</t>
+    <t>Westminster</t>
+  </si>
+  <si>
+    <t>Mac</t>
+  </si>
+  <si>
+    <t>Ballard</t>
+  </si>
+  <si>
+    <t>Music Building</t>
+  </si>
+  <si>
+    <t>Johnston</t>
+  </si>
+  <si>
+    <t>Distances (feet) from Robinson to…</t>
+  </si>
+  <si>
+    <t>Times (minutes) from Robinson to…</t>
+  </si>
+  <si>
+    <t>Distances (feet) from the Library to…</t>
+  </si>
+  <si>
+    <t>Times (minutes) from the Library to…</t>
+  </si>
+  <si>
+    <t>Distances (feet) from Hendricks to…</t>
+  </si>
+  <si>
+    <t>Times (minutes) from Hendricks to…</t>
   </si>
 </sst>
 </file>
@@ -95,7 +131,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -156,7 +192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -472,18 +508,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{269D6B00-0816-41CA-8210-797105797DE4}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="3" width="9.109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="2"/>
+    <col min="7" max="7" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -491,10 +530,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -502,9 +538,634 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>15</v>
+      </c>
+      <c r="B4" s="2">
+        <v>239</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7">
+        <f>IF(B4 = "","",(B4/$D$1))</f>
+        <v>0.62077922077922076</v>
+      </c>
+      <c r="I4" s="7" t="str">
+        <f>IF(C4 = "","",(C4/$D$1))</f>
+        <v/>
+      </c>
+      <c r="J4" s="7" t="str">
+        <f>IF(D4 = "","",(D4/$D$1))</f>
+        <v/>
+      </c>
+      <c r="K4" s="7" t="str">
+        <f>IF(E4 = "","",(E4/$D$1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>419</v>
+      </c>
+      <c r="C5" s="2">
+        <v>622</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" ref="H5:H24" si="0">IF(B5 = "","",(B5/$D$1))</f>
+        <v>1.0883116883116883</v>
+      </c>
+      <c r="I5" s="7">
+        <f t="shared" ref="I5:I24" si="1">IF(C5 = "","",(C5/$D$1))</f>
+        <v>1.6155844155844157</v>
+      </c>
+      <c r="J5" s="7" t="str">
+        <f t="shared" ref="J5:J21" si="2">IF(D5 = "","",(D5/$D$1))</f>
+        <v/>
+      </c>
+      <c r="K5" s="7" t="str">
+        <f t="shared" ref="K5:K21" si="3">IF(E5 = "","",(E5/$D$1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>273</v>
+      </c>
+      <c r="C6" s="2">
+        <v>476</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
+        <v>0.70909090909090911</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="1"/>
+        <v>1.2363636363636363</v>
+      </c>
+      <c r="J6" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K6" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>405</v>
+      </c>
+      <c r="C7" s="2">
+        <v>507</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.051948051948052</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="1"/>
+        <v>1.316883116883117</v>
+      </c>
+      <c r="J7" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K7" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2">
+        <v>374</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
+        <v>0.97142857142857142</v>
+      </c>
+      <c r="I8" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J8" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K8" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2">
+        <v>405</v>
+      </c>
+      <c r="C9" s="2">
+        <v>474</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="0"/>
+        <v>1.051948051948052</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="1"/>
+        <v>1.2311688311688311</v>
+      </c>
+      <c r="J9" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K9" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2">
+        <v>347</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="0"/>
+        <v>0.90129870129870127</v>
+      </c>
+      <c r="I10" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J10" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K10" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2">
+        <v>826</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1099</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="0"/>
+        <v>2.1454545454545455</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="1"/>
+        <v>2.8545454545454545</v>
+      </c>
+      <c r="J11" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K11" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1253</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1086</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="0"/>
+        <v>3.2545454545454544</v>
+      </c>
+      <c r="I12" s="7">
+        <f t="shared" si="1"/>
+        <v>2.8207792207792206</v>
+      </c>
+      <c r="J12" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K12" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2">
+        <v>916</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1023</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="0"/>
+        <v>2.3792207792207791</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="1"/>
+        <v>2.657142857142857</v>
+      </c>
+      <c r="J13" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K13" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1438</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="0"/>
+        <v>3.7350649350649352</v>
+      </c>
+      <c r="I14" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J14" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K14" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2">
+        <v>914</v>
+      </c>
+      <c r="C15" s="2">
+        <v>924</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="7">
+        <f t="shared" si="0"/>
+        <v>2.3740259740259742</v>
+      </c>
+      <c r="I15" s="7">
+        <f t="shared" si="1"/>
+        <v>2.4</v>
+      </c>
+      <c r="J15" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K15" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1023</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1053</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="7">
+        <f t="shared" si="0"/>
+        <v>2.657142857142857</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="shared" si="1"/>
+        <v>2.7350649350649352</v>
+      </c>
+      <c r="J16" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K16" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1142</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" si="0"/>
+        <v>2.9662337662337661</v>
+      </c>
+      <c r="I17" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J17" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K17" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="2">
+        <v>980</v>
+      </c>
+      <c r="C18" s="2">
+        <v>767</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" si="0"/>
+        <v>2.5454545454545454</v>
+      </c>
+      <c r="I18" s="7">
+        <f t="shared" si="1"/>
+        <v>1.9922077922077923</v>
+      </c>
+      <c r="J18" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K18" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="2">
+        <v>700</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" si="0"/>
+        <v>1.8181818181818181</v>
+      </c>
+      <c r="I19" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J19" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K19" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>756</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="0"/>
+        <v>1.9636363636363636</v>
+      </c>
+      <c r="I20" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J20" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K20" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1040</v>
+      </c>
+      <c r="C21" s="2">
+        <v>977</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" si="0"/>
+        <v>2.7012987012987013</v>
+      </c>
+      <c r="I21" s="7">
+        <f t="shared" si="1"/>
+        <v>2.5376623376623377</v>
+      </c>
+      <c r="J21" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K21" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>916</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1024</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="0"/>
+        <v>2.3792207792207791</v>
+      </c>
+      <c r="I22" s="7">
+        <f t="shared" si="1"/>
+        <v>2.6597402597402597</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1114</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1016</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" si="0"/>
+        <v>2.8935064935064934</v>
+      </c>
+      <c r="I23" s="7">
+        <f t="shared" si="1"/>
+        <v>2.638961038961039</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1281</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1102</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="7">
+        <f t="shared" si="0"/>
+        <v>3.3272727272727272</v>
+      </c>
+      <c r="I24" s="7">
+        <f t="shared" si="1"/>
+        <v>2.8623376623376622</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F660714-8601-4E2F-B943-F269E7436E17}">
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="3" width="9.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="6">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B4" s="2">
         <v>239</v>
@@ -513,34 +1174,34 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="G4" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H4" s="7">
-        <f>IF(B4 = "","",(B4/$D$1))</f>
+        <f t="shared" ref="H4:H24" si="0">IF(B4 = "","",(B4/$D$1))</f>
         <v>0.62077922077922076</v>
       </c>
       <c r="I4" s="7" t="str">
-        <f>IF(C4 = "","",(C4/$D$1))</f>
+        <f t="shared" ref="I4:I24" si="1">IF(C4 = "","",(C4/$D$1))</f>
         <v/>
       </c>
       <c r="J4" s="7" t="str">
-        <f>IF(D4 = "","",(D4/$D$1))</f>
+        <f t="shared" ref="J4:J24" si="2">IF(D4 = "","",(D4/$D$1))</f>
         <v/>
       </c>
       <c r="K4" s="7" t="str">
-        <f>IF(E4 = "","",(E4/$D$1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K4:K24" si="3">IF(E4 = "","",(E4/$D$1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="2">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="C5" s="2">
-        <v>622</v>
+        <v>536</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -548,32 +1209,30 @@
         <v>0</v>
       </c>
       <c r="H5" s="7">
-        <f t="shared" ref="H5:H19" si="0">IF(B5 = "","",(B5/$D$1))</f>
-        <v>1.0883116883116883</v>
+        <f t="shared" si="0"/>
+        <v>1.2155844155844155</v>
       </c>
       <c r="I5" s="7">
-        <f>IF(C5 = "","",(C5/$D$1))</f>
-        <v>1.6155844155844157</v>
+        <f t="shared" si="1"/>
+        <v>1.3922077922077922</v>
       </c>
       <c r="J5" s="7" t="str">
-        <f>IF(D5 = "","",(D5/$D$1))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K5" s="7" t="str">
-        <f t="shared" ref="K5:K19" si="1">IF(E5 = "","",(E5/$D$1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="2">
-        <v>273</v>
-      </c>
-      <c r="C6" s="2">
-        <v>476</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="G6" s="3" t="s">
@@ -581,31 +1240,29 @@
       </c>
       <c r="H6" s="7">
         <f t="shared" si="0"/>
-        <v>0.70909090909090911</v>
-      </c>
-      <c r="I6" s="7">
-        <f>IF(C6 = "","",(C6/$D$1))</f>
-        <v>1.2363636363636363</v>
+        <v>1.2259740259740259</v>
+      </c>
+      <c r="I6" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="J6" s="7" t="str">
-        <f>IF(D6 = "","",(D6/$D$1))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K6" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="2">
-        <v>405</v>
-      </c>
-      <c r="C7" s="2">
-        <v>507</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="G7" s="3" t="s">
@@ -613,27 +1270,27 @@
       </c>
       <c r="H7" s="7">
         <f t="shared" si="0"/>
-        <v>1.051948051948052</v>
-      </c>
-      <c r="I7" s="7">
-        <f>IF(C7 = "","",(C7/$D$1))</f>
-        <v>1.316883116883117</v>
+        <v>1.3064935064935066</v>
+      </c>
+      <c r="I7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="J7" s="7" t="str">
-        <f>IF(D7 = "","",(D7/$D$1))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K7" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="2">
-        <v>374</v>
+        <v>672</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -643,30 +1300,30 @@
       </c>
       <c r="H8" s="7">
         <f t="shared" si="0"/>
-        <v>0.97142857142857142</v>
+        <v>1.7454545454545454</v>
       </c>
       <c r="I8" s="7" t="str">
-        <f>IF(C8 = "","",(C8/$D$1))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J8" s="7" t="str">
-        <f>IF(D8 = "","",(D8/$D$1))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K8" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>405</v>
+        <v>471</v>
       </c>
       <c r="C9" s="2">
-        <v>474</v>
+        <v>698</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -675,27 +1332,27 @@
       </c>
       <c r="H9" s="7">
         <f t="shared" si="0"/>
-        <v>1.051948051948052</v>
+        <v>1.2233766233766235</v>
       </c>
       <c r="I9" s="7">
-        <f>IF(C9 = "","",(C9/$D$1))</f>
-        <v>1.2311688311688311</v>
+        <f t="shared" si="1"/>
+        <v>1.8129870129870129</v>
       </c>
       <c r="J9" s="7" t="str">
-        <f>IF(D9 = "","",(D9/$D$1))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K9" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="2">
-        <v>347</v>
+        <v>420</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -705,67 +1362,59 @@
       </c>
       <c r="H10" s="7">
         <f t="shared" si="0"/>
-        <v>0.90129870129870127</v>
+        <v>1.0909090909090908</v>
       </c>
       <c r="I10" s="7" t="str">
-        <f>IF(C10 = "","",(C10/$D$1))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J10" s="7" t="str">
-        <f>IF(D10 = "","",(D10/$D$1))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K10" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="2">
-        <v>826</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1099</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1025</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1010</v>
-      </c>
+        <v>909</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
       <c r="G11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" si="0"/>
-        <v>2.1454545454545455</v>
-      </c>
-      <c r="I11" s="7">
-        <f>IF(C11 = "","",(C11/$D$1))</f>
-        <v>2.8545454545454545</v>
-      </c>
-      <c r="J11" s="7">
-        <f>IF(D11 = "","",(D11/$D$1))</f>
-        <v>2.6623376623376624</v>
-      </c>
-      <c r="K11" s="7">
+        <v>2.361038961038961</v>
+      </c>
+      <c r="I11" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>2.6233766233766236</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="J11" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K11" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="2">
-        <v>1253</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1086</v>
-      </c>
+        <v>1080</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="G12" s="3" t="s">
@@ -773,31 +1422,29 @@
       </c>
       <c r="H12" s="7">
         <f t="shared" si="0"/>
-        <v>3.2545454545454544</v>
-      </c>
-      <c r="I12" s="7">
-        <f>IF(C12 = "","",(C12/$D$1))</f>
-        <v>2.8207792207792206</v>
+        <v>2.8051948051948052</v>
+      </c>
+      <c r="I12" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="J12" s="7" t="str">
-        <f>IF(D12 = "","",(D12/$D$1))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K12" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="2">
-        <v>916</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1023</v>
-      </c>
+        <v>1125</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="G13" s="3" t="s">
@@ -805,27 +1452,27 @@
       </c>
       <c r="H13" s="7">
         <f t="shared" si="0"/>
-        <v>2.3792207792207791</v>
-      </c>
-      <c r="I13" s="7">
-        <f>IF(C13 = "","",(C13/$D$1))</f>
-        <v>2.657142857142857</v>
+        <v>2.9220779220779223</v>
+      </c>
+      <c r="I13" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="J13" s="7" t="str">
-        <f>IF(D13 = "","",(D13/$D$1))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K13" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="2">
-        <v>1438</v>
+        <v>1617</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -835,31 +1482,29 @@
       </c>
       <c r="H14" s="7">
         <f t="shared" si="0"/>
-        <v>3.7350649350649352</v>
+        <v>4.2</v>
       </c>
       <c r="I14" s="7" t="str">
-        <f>IF(C14 = "","",(C14/$D$1))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J14" s="7" t="str">
-        <f>IF(D14 = "","",(D14/$D$1))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K14" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="2">
-        <v>914</v>
-      </c>
-      <c r="C15" s="2">
-        <v>924</v>
-      </c>
+        <v>841</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="G15" s="3" t="s">
@@ -867,31 +1512,29 @@
       </c>
       <c r="H15" s="7">
         <f t="shared" si="0"/>
-        <v>2.3740259740259742</v>
-      </c>
-      <c r="I15" s="7">
-        <f>IF(C15 = "","",(C15/$D$1))</f>
-        <v>2.4</v>
+        <v>2.1844155844155844</v>
+      </c>
+      <c r="I15" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="J15" s="7" t="str">
-        <f>IF(D15 = "","",(D15/$D$1))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K15" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="2">
-        <v>1023</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1053</v>
-      </c>
+        <v>684</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="G16" s="3" t="s">
@@ -899,27 +1542,27 @@
       </c>
       <c r="H16" s="7">
         <f t="shared" si="0"/>
-        <v>2.657142857142857</v>
-      </c>
-      <c r="I16" s="7">
-        <f>IF(C16 = "","",(C16/$D$1))</f>
-        <v>2.7350649350649352</v>
+        <v>1.7766233766233765</v>
+      </c>
+      <c r="I16" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="J16" s="7" t="str">
-        <f>IF(D16 = "","",(D16/$D$1))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K16" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="2">
-        <v>1142</v>
+        <v>728</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -929,30 +1572,30 @@
       </c>
       <c r="H17" s="7">
         <f t="shared" si="0"/>
-        <v>2.9662337662337661</v>
+        <v>1.8909090909090909</v>
       </c>
       <c r="I17" s="7" t="str">
-        <f>IF(C17 = "","",(C17/$D$1))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J17" s="7" t="str">
-        <f>IF(D17 = "","",(D17/$D$1))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K17" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="2">
-        <v>980</v>
+        <v>567</v>
       </c>
       <c r="C18" s="2">
-        <v>767</v>
+        <v>469</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -961,27 +1604,27 @@
       </c>
       <c r="H18" s="7">
         <f t="shared" si="0"/>
-        <v>2.5454545454545454</v>
+        <v>1.4727272727272727</v>
       </c>
       <c r="I18" s="7">
-        <f>IF(C18 = "","",(C18/$D$1))</f>
-        <v>1.9922077922077923</v>
+        <f t="shared" si="1"/>
+        <v>1.2181818181818183</v>
       </c>
       <c r="J18" s="7" t="str">
-        <f>IF(D18 = "","",(D18/$D$1))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K18" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="2">
-        <v>700</v>
+        <v>393</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -991,18 +1634,168 @@
       </c>
       <c r="H19" s="7">
         <f t="shared" si="0"/>
-        <v>1.8181818181818181</v>
+        <v>1.0207792207792208</v>
       </c>
       <c r="I19" s="7" t="str">
-        <f>IF(C19 = "","",(C19/$D$1))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J19" s="7" t="str">
-        <f>IF(D19 = "","",(D19/$D$1))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K19" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>493</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2805194805194806</v>
+      </c>
+      <c r="I20" s="7" t="str">
         <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J20" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K20" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>705</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" si="0"/>
+        <v>1.8311688311688312</v>
+      </c>
+      <c r="I21" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J21" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K21" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>590</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="0"/>
+        <v>1.5324675324675325</v>
+      </c>
+      <c r="I22" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J22" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K22" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>743</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" si="0"/>
+        <v>1.92987012987013</v>
+      </c>
+      <c r="I23" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J23" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K23" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1009</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="G24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="7">
+        <f t="shared" si="0"/>
+        <v>2.6207792207792209</v>
+      </c>
+      <c r="I24" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J24" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K24" s="7" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1012,20 +1805,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F660714-8601-4E2F-B943-F269E7436E17}">
-  <dimension ref="A1:K19"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42DFD716-EFB0-4289-B6D0-CCC044E8C380}">
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="3" width="9.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1033,46 +1828,1402 @@
         <v>385</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2">
+        <v>419</v>
+      </c>
+      <c r="C4" s="2">
+        <v>622</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="G4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" ref="H4:K24" si="0">IF(B4 = "","",(B4/$D$1))</f>
+        <v>1.0883116883116883</v>
+      </c>
+      <c r="I4" s="7">
+        <f t="shared" si="0"/>
+        <v>1.6155844155844157</v>
+      </c>
+      <c r="J4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2">
+        <v>468</v>
+      </c>
+      <c r="C5" s="2">
+        <v>536</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="G5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2155844155844155</v>
+      </c>
+      <c r="I5" s="7">
+        <f t="shared" si="0"/>
+        <v>1.3922077922077922</v>
+      </c>
+      <c r="J5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>633</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
+        <v>1.6441558441558441</v>
+      </c>
+      <c r="I6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>936</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
+        <v>2.4311688311688311</v>
+      </c>
+      <c r="I7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2">
+        <v>434</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
+        <v>1.1272727272727272</v>
+      </c>
+      <c r="I8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2">
+        <v>507</v>
+      </c>
+      <c r="C9" s="2">
+        <v>405</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="0"/>
+        <v>1.316883116883117</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="0"/>
+        <v>1.051948051948052</v>
+      </c>
+      <c r="J9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1041</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="0"/>
+        <v>2.703896103896104</v>
+      </c>
+      <c r="I10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1227</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="0"/>
+        <v>3.1870129870129871</v>
+      </c>
+      <c r="I11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1157</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="G12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="0"/>
+        <v>3.005194805194805</v>
+      </c>
+      <c r="I12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2">
+        <v>946</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="G13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="0"/>
+        <v>2.4571428571428573</v>
+      </c>
+      <c r="I13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1418</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="G14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="0"/>
+        <v>3.6831168831168832</v>
+      </c>
+      <c r="I14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2">
+        <v>603</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="G15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="7">
+        <f t="shared" si="0"/>
+        <v>1.5662337662337662</v>
+      </c>
+      <c r="I15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2">
+        <v>495</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="G16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2857142857142858</v>
+      </c>
+      <c r="I16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2">
+        <v>548</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="G17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4233766233766234</v>
+      </c>
+      <c r="I17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="2">
+        <v>459</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="G18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" si="0"/>
+        <v>1.1922077922077923</v>
+      </c>
+      <c r="I18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="2">
+        <v>582</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="G19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" si="0"/>
+        <v>1.5116883116883117</v>
+      </c>
+      <c r="I19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>868</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="0"/>
+        <v>2.2545454545454544</v>
+      </c>
+      <c r="I20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="B21" s="2">
+        <v>1064</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" si="0"/>
+        <v>2.7636363636363637</v>
+      </c>
+      <c r="I21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>788</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="0"/>
+        <v>2.0467532467532465</v>
+      </c>
+      <c r="I22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>914</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" si="0"/>
+        <v>2.3740259740259742</v>
+      </c>
+      <c r="I23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>782</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="G24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="7">
+        <f t="shared" si="0"/>
+        <v>2.0311688311688312</v>
+      </c>
+      <c r="I24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{798B4A75-015F-4481-A866-0A3AEF6A7D83}">
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="3" width="9.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="6">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="G3" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2">
+        <v>273</v>
+      </c>
+      <c r="C4" s="2">
+        <v>476</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="G4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" ref="H4:K24" si="0">IF(B4 = "","",(B4/$D$1))</f>
+        <v>0.70909090909090911</v>
+      </c>
+      <c r="I4" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2363636363636363</v>
+      </c>
+      <c r="J4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2">
+        <v>472</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="G5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2259740259740259</v>
+      </c>
+      <c r="I5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>633</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
+        <v>1.6441558441558441</v>
+      </c>
+      <c r="I6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>151</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
+        <v>0.39220779220779223</v>
+      </c>
+      <c r="I7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2">
+        <v>566</v>
+      </c>
+      <c r="C8" s="2">
+        <v>353</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4701298701298702</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="0"/>
+        <v>0.91688311688311686</v>
+      </c>
+      <c r="J8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2">
+        <v>435</v>
+      </c>
+      <c r="C9" s="2">
+        <v>578</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="0"/>
+        <v>1.1298701298701299</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="0"/>
+        <v>1.5012987012987014</v>
+      </c>
+      <c r="J9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2">
+        <v>347</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="0"/>
+        <v>0.90129870129870127</v>
+      </c>
+      <c r="I10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2">
+        <v>640</v>
+      </c>
+      <c r="C11" s="2">
+        <v>732</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="0"/>
+        <v>1.6623376623376624</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="0"/>
+        <v>1.9012987012987013</v>
+      </c>
+      <c r="J11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2">
+        <v>783</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="G12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="0"/>
+        <v>2.0337662337662339</v>
+      </c>
+      <c r="I12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2">
+        <v>545</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="G13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4155844155844155</v>
+      </c>
+      <c r="I13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1133</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="G14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="0"/>
+        <v>2.9428571428571431</v>
+      </c>
+      <c r="I14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1019</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="G15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="7">
+        <f t="shared" si="0"/>
+        <v>2.6467532467532466</v>
+      </c>
+      <c r="I15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1021</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="G16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="7">
+        <f t="shared" si="0"/>
+        <v>2.6519480519480521</v>
+      </c>
+      <c r="I16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1015</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="G17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" si="0"/>
+        <v>2.6363636363636362</v>
+      </c>
+      <c r="I17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="2">
+        <v>673</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="G18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" si="0"/>
+        <v>1.7480519480519481</v>
+      </c>
+      <c r="I18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="2">
+        <v>680</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="G19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" si="0"/>
+        <v>1.7662337662337662</v>
+      </c>
+      <c r="I19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>1041</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="0"/>
+        <v>2.703896103896104</v>
+      </c>
+      <c r="I20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1245</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" si="0"/>
+        <v>3.2337662337662336</v>
+      </c>
+      <c r="I21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>939</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="0"/>
+        <v>2.4389610389610388</v>
+      </c>
+      <c r="I22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1057</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" si="0"/>
+        <v>2.7454545454545456</v>
+      </c>
+      <c r="I23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1256</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="G24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="7">
+        <f t="shared" si="0"/>
+        <v>3.2623376623376625</v>
+      </c>
+      <c r="I24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0B5204-3871-4413-8844-74B7D13B39BB}">
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="3" width="9.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="6">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="B4" s="2">
+        <v>239</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="7" t="str">
-        <f>IF(B4 = "","",(B4/$D$1))</f>
-        <v/>
+        <v>24</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" ref="H4:K24" si="0">IF(B4 = "","",(B4/$D$1))</f>
+        <v>0.62077922077922076</v>
       </c>
       <c r="I4" s="7" t="str">
-        <f>IF(C4 = "","",(C4/$D$1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J4" s="7" t="str">
-        <f>IF(D4 = "","",(D4/$D$1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K4" s="7" t="str">
-        <f>IF(E4 = "","",(E4/$D$1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -1084,23 +3235,23 @@
         <v>0</v>
       </c>
       <c r="H5" s="7" t="str">
-        <f>IF(B5 = "","",(B5/$D$1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I5" s="7" t="str">
-        <f>IF(C5 = "","",(C5/$D$1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J5" s="7" t="str">
-        <f>IF(D5 = "","",(D5/$D$1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K5" s="7" t="str">
-        <f>IF(E5 = "","",(E5/$D$1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -1112,23 +3263,23 @@
         <v>1</v>
       </c>
       <c r="H6" s="7" t="str">
-        <f>IF(B6 = "","",(B6/$D$1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I6" s="7" t="str">
-        <f>IF(C6 = "","",(C6/$D$1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J6" s="7" t="str">
-        <f>IF(D6 = "","",(D6/$D$1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K6" s="7" t="str">
-        <f>IF(E6 = "","",(E6/$D$1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -1140,23 +3291,23 @@
         <v>2</v>
       </c>
       <c r="H7" s="7" t="str">
-        <f>IF(B7 = "","",(B7/$D$1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I7" s="7" t="str">
-        <f>IF(C7 = "","",(C7/$D$1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J7" s="7" t="str">
-        <f>IF(D7 = "","",(D7/$D$1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K7" s="7" t="str">
-        <f>IF(E7 = "","",(E7/$D$1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -1168,23 +3319,23 @@
         <v>3</v>
       </c>
       <c r="H8" s="7" t="str">
-        <f>IF(B8 = "","",(B8/$D$1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I8" s="7" t="str">
-        <f>IF(C8 = "","",(C8/$D$1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J8" s="7" t="str">
-        <f>IF(D8 = "","",(D8/$D$1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K8" s="7" t="str">
-        <f>IF(E8 = "","",(E8/$D$1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -1196,23 +3347,23 @@
         <v>4</v>
       </c>
       <c r="H9" s="7" t="str">
-        <f>IF(B9 = "","",(B9/$D$1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I9" s="7" t="str">
-        <f>IF(C9 = "","",(C9/$D$1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J9" s="7" t="str">
-        <f>IF(D9 = "","",(D9/$D$1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K9" s="7" t="str">
-        <f>IF(E9 = "","",(E9/$D$1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -1224,23 +3375,23 @@
         <v>5</v>
       </c>
       <c r="H10" s="7" t="str">
-        <f>IF(B10 = "","",(B10/$D$1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I10" s="7" t="str">
-        <f>IF(C10 = "","",(C10/$D$1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J10" s="7" t="str">
-        <f>IF(D10 = "","",(D10/$D$1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K10" s="7" t="str">
-        <f>IF(E10 = "","",(E10/$D$1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -1252,23 +3403,23 @@
         <v>6</v>
       </c>
       <c r="H11" s="7" t="str">
-        <f>IF(B11 = "","",(B11/$D$1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I11" s="7" t="str">
-        <f>IF(C11 = "","",(C11/$D$1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J11" s="7" t="str">
-        <f>IF(D11 = "","",(D11/$D$1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K11" s="7" t="str">
-        <f>IF(E11 = "","",(E11/$D$1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -1280,23 +3431,23 @@
         <v>7</v>
       </c>
       <c r="H12" s="7" t="str">
-        <f>IF(B12 = "","",(B12/$D$1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I12" s="7" t="str">
-        <f>IF(C12 = "","",(C12/$D$1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J12" s="7" t="str">
-        <f>IF(D12 = "","",(D12/$D$1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K12" s="7" t="str">
-        <f>IF(E12 = "","",(E12/$D$1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -1308,23 +3459,23 @@
         <v>8</v>
       </c>
       <c r="H13" s="7" t="str">
-        <f>IF(B13 = "","",(B13/$D$1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I13" s="7" t="str">
-        <f>IF(C13 = "","",(C13/$D$1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J13" s="7" t="str">
-        <f>IF(D13 = "","",(D13/$D$1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K13" s="7" t="str">
-        <f>IF(E13 = "","",(E13/$D$1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -1336,23 +3487,23 @@
         <v>9</v>
       </c>
       <c r="H14" s="7" t="str">
-        <f>IF(B14 = "","",(B14/$D$1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I14" s="7" t="str">
-        <f>IF(C14 = "","",(C14/$D$1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J14" s="7" t="str">
-        <f>IF(D14 = "","",(D14/$D$1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K14" s="7" t="str">
-        <f>IF(E14 = "","",(E14/$D$1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
@@ -1364,23 +3515,23 @@
         <v>10</v>
       </c>
       <c r="H15" s="7" t="str">
-        <f>IF(B15 = "","",(B15/$D$1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I15" s="7" t="str">
-        <f>IF(C15 = "","",(C15/$D$1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J15" s="7" t="str">
-        <f>IF(D15 = "","",(D15/$D$1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K15" s="7" t="str">
-        <f>IF(E15 = "","",(E15/$D$1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
@@ -1392,23 +3543,23 @@
         <v>11</v>
       </c>
       <c r="H16" s="7" t="str">
-        <f>IF(B16 = "","",(B16/$D$1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I16" s="7" t="str">
-        <f>IF(C16 = "","",(C16/$D$1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J16" s="7" t="str">
-        <f>IF(D16 = "","",(D16/$D$1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K16" s="7" t="str">
-        <f>IF(E16 = "","",(E16/$D$1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
@@ -1420,23 +3571,23 @@
         <v>12</v>
       </c>
       <c r="H17" s="7" t="str">
-        <f>IF(B17 = "","",(B17/$D$1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I17" s="7" t="str">
-        <f>IF(C17 = "","",(C17/$D$1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J17" s="7" t="str">
-        <f>IF(D17 = "","",(D17/$D$1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K17" s="7" t="str">
-        <f>IF(E17 = "","",(E17/$D$1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
@@ -1448,23 +3599,23 @@
         <v>13</v>
       </c>
       <c r="H18" s="7" t="str">
-        <f>IF(B18 = "","",(B18/$D$1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I18" s="7" t="str">
-        <f>IF(C18 = "","",(C18/$D$1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J18" s="7" t="str">
-        <f>IF(D18 = "","",(D18/$D$1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K18" s="7" t="str">
-        <f>IF(E18 = "","",(E18/$D$1))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
@@ -1476,19 +3627,2049 @@
         <v>14</v>
       </c>
       <c r="H19" s="7" t="str">
-        <f>IF(B19 = "","",(B19/$D$1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I19" s="7" t="str">
-        <f>IF(C19 = "","",(C19/$D$1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J19" s="7" t="str">
-        <f>IF(D19 = "","",(D19/$D$1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K19" s="7" t="str">
-        <f>IF(E19 = "","",(E19/$D$1))</f>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="G24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DFD9826-6ADD-46A3-8E78-69E730E7C1FC}">
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="3" width="9.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="6">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2">
+        <v>239</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="G4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" ref="H4:K24" si="0">IF(B4 = "","",(B4/$D$1))</f>
+        <v>0.62077922077922076</v>
+      </c>
+      <c r="I4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="G5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="G12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="G13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="G14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="G15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="G16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="G17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="G18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="G19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="G24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DAB40D4-3B38-4716-BDC6-333ABE60F521}">
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="3" width="9.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="6">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2">
+        <v>239</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="G4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" ref="H4:K24" si="0">IF(B4 = "","",(B4/$D$1))</f>
+        <v>0.62077922077922076</v>
+      </c>
+      <c r="I4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="G5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="G12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="G13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="G14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="G15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="G16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="G17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="G18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="G19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="G24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1ED6C86-223A-4D11-8A25-0D0C1430867E}">
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="3" width="9.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="6">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2">
+        <v>239</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="G4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" ref="H4:K24" si="0">IF(B4 = "","",(B4/$D$1))</f>
+        <v>0.62077922077922076</v>
+      </c>
+      <c r="I4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="G5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="G12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="G13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="G14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="G15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="G16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="G17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="G18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="G19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="G24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K24" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>

--- a/Documents/Distances.xlsx
+++ b/Documents/Distances.xlsx
@@ -9,17 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7968" activeTab="3" xr2:uid="{D91A8DBA-E9BB-45E3-84D0-FA2F40E38D3D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7968" firstSheet="4" activeTab="10" xr2:uid="{D91A8DBA-E9BB-45E3-84D0-FA2F40E38D3D}"/>
   </bookViews>
   <sheets>
     <sheet name="From Johnston" sheetId="1" r:id="rId1"/>
     <sheet name="From Robinson" sheetId="2" r:id="rId2"/>
     <sheet name="From the Library" sheetId="3" r:id="rId3"/>
     <sheet name="From Hendrcks" sheetId="4" r:id="rId4"/>
-    <sheet name="From Stewart" sheetId="5" r:id="rId5"/>
-    <sheet name="From Arend" sheetId="6" r:id="rId6"/>
-    <sheet name="From the HUB" sheetId="7" r:id="rId7"/>
-    <sheet name="From the HUB (2)" sheetId="8" r:id="rId8"/>
+    <sheet name="From the HUB" sheetId="7" r:id="rId5"/>
+    <sheet name="From Lindaman" sheetId="11" r:id="rId6"/>
+    <sheet name="From Weyerhaeuser" sheetId="12" r:id="rId7"/>
+    <sheet name="From Dixon" sheetId="13" r:id="rId8"/>
+    <sheet name="From Cowles Auditorium" sheetId="14" r:id="rId9"/>
+    <sheet name="From Music Building" sheetId="15" r:id="rId10"/>
+    <sheet name="From Westminster" sheetId="16" r:id="rId11"/>
+    <sheet name="From Stewart" sheetId="5" r:id="rId12"/>
+    <sheet name="From Arend" sheetId="6" r:id="rId13"/>
+    <sheet name="From BJ" sheetId="10" r:id="rId14"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="52">
   <si>
     <t>Library</t>
   </si>
@@ -124,6 +130,69 @@
   </si>
   <si>
     <t>Times (minutes) from Hendricks to…</t>
+  </si>
+  <si>
+    <t>Distances (feet) from Stewart to…</t>
+  </si>
+  <si>
+    <t>Times (minutes) from Stewart to…</t>
+  </si>
+  <si>
+    <t>Distances (feet) from Arend to…</t>
+  </si>
+  <si>
+    <t>Times (minutes) from Arend to…</t>
+  </si>
+  <si>
+    <t>Distances (feet) from the HUB to…</t>
+  </si>
+  <si>
+    <t>Times (minutes) from the HUB to…</t>
+  </si>
+  <si>
+    <t>Distances (feet) from BJ to…</t>
+  </si>
+  <si>
+    <t>Times (minutes) from BJ to…</t>
+  </si>
+  <si>
+    <t>Distances (feet) from Lindaman to…</t>
+  </si>
+  <si>
+    <t>Times (minutes) from Lindaman to…</t>
+  </si>
+  <si>
+    <t>Distances (feet) from Weyerhaeuser to…</t>
+  </si>
+  <si>
+    <t>Times (minutes) from Weyerhaeuser to…</t>
+  </si>
+  <si>
+    <t>Distances (feet) from Dixon to…</t>
+  </si>
+  <si>
+    <t>Times (minutes) from Dixon to…</t>
+  </si>
+  <si>
+    <t>Distances (feet) from Cowles Auditorium to…</t>
+  </si>
+  <si>
+    <t>Times (minutes) from Cowles Auditorium to…</t>
+  </si>
+  <si>
+    <t>Distances (feet) from the Music Building to…</t>
+  </si>
+  <si>
+    <t>Times (minutes) from the Music Building to…</t>
+  </si>
+  <si>
+    <t>Distances (feet) from Westminster to…</t>
+  </si>
+  <si>
+    <t>Times (minutes) from Westminster to…</t>
+  </si>
+  <si>
+    <t>The Music Building</t>
   </si>
 </sst>
 </file>
@@ -1129,12 +1198,2602 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48934A6-18FD-4EC8-BDED-29EC463B278F}">
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="3" width="9.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="6">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="G4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="7" t="str">
+        <f t="shared" ref="H4:K24" si="0">IF(B4 = "","",(B4/$D$1))</f>
+        <v/>
+      </c>
+      <c r="I4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="G5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1916</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="0"/>
+        <v>4.9766233766233769</v>
+      </c>
+      <c r="I11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1890</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="G12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="0"/>
+        <v>4.9090909090909092</v>
+      </c>
+      <c r="I12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1606</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="G13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="7">
+        <f>IF(B13 = "","",(B13/$D$1))</f>
+        <v>4.1714285714285717</v>
+      </c>
+      <c r="I13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1718</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="G14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="0"/>
+        <v>4.4623376623376627</v>
+      </c>
+      <c r="I14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="G15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="G16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2">
+        <v>593</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="G17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" si="0"/>
+        <v>1.5402597402597402</v>
+      </c>
+      <c r="I17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="G19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1429</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="0"/>
+        <v>3.7116883116883117</v>
+      </c>
+      <c r="I20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1654</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" si="0"/>
+        <v>4.2961038961038964</v>
+      </c>
+      <c r="I21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>886</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="0"/>
+        <v>2.3012987012987014</v>
+      </c>
+      <c r="I22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>796</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="7">
+        <f>IF(B23 = "","",(B23/$D$1))</f>
+        <v>2.0675324675324673</v>
+      </c>
+      <c r="I23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="G24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD786D4E-473E-4B57-9F10-60F1F23A6A8E}">
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="3" width="9.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="6">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="G4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="7" t="str">
+        <f t="shared" ref="H4:K24" si="0">IF(B4 = "","",(B4/$D$1))</f>
+        <v/>
+      </c>
+      <c r="I4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="G5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1624</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="0"/>
+        <v>4.2181818181818178</v>
+      </c>
+      <c r="I11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1823</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="G12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="0"/>
+        <v>4.7350649350649352</v>
+      </c>
+      <c r="I12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1769</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="G13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="7">
+        <f>IF(B13 = "","",(B13/$D$1))</f>
+        <v>4.5948051948051951</v>
+      </c>
+      <c r="I13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2212</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="G14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="0"/>
+        <v>5.7454545454545451</v>
+      </c>
+      <c r="I14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="G15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="G16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2">
+        <v>976</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="G17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" si="0"/>
+        <v>2.535064935064935</v>
+      </c>
+      <c r="I17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="G19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>297</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="0"/>
+        <v>0.77142857142857146</v>
+      </c>
+      <c r="I20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>591</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="0"/>
+        <v>1.535064935064935</v>
+      </c>
+      <c r="I22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>702</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="7">
+        <f>IF(B23 = "","",(B23/$D$1))</f>
+        <v>1.8233766233766233</v>
+      </c>
+      <c r="I23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="G24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0B5204-3871-4413-8844-74B7D13B39BB}">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="3" width="9.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="6">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2">
+        <v>405</v>
+      </c>
+      <c r="C4" s="2">
+        <v>507</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="G4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" ref="H4:K16" si="0">IF(B4 = "","",(B4/$D$1))</f>
+        <v>1.051948051948052</v>
+      </c>
+      <c r="I4" s="7">
+        <f t="shared" si="0"/>
+        <v>1.316883116883117</v>
+      </c>
+      <c r="J4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>936</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="G5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="0"/>
+        <v>2.4311688311688311</v>
+      </c>
+      <c r="I5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2">
+        <v>503</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
+        <v>1.3064935064935066</v>
+      </c>
+      <c r="I6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>151</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
+        <v>0.39220779220779223</v>
+      </c>
+      <c r="I7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <v>572</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4857142857142858</v>
+      </c>
+      <c r="I8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1098</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="0"/>
+        <v>2.8519480519480518</v>
+      </c>
+      <c r="I9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1260</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1427</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="0"/>
+        <v>3.2727272727272729</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" si="0"/>
+        <v>3.7064935064935063</v>
+      </c>
+      <c r="J10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1562</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1430</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="0"/>
+        <v>4.0571428571428569</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="0"/>
+        <v>3.7142857142857144</v>
+      </c>
+      <c r="J11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1325</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="G12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="0"/>
+        <v>3.4415584415584415</v>
+      </c>
+      <c r="I12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1543</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="G13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="0"/>
+        <v>4.0077922077922077</v>
+      </c>
+      <c r="I13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2">
+        <v>954</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="G14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="0"/>
+        <v>2.4779220779220781</v>
+      </c>
+      <c r="I14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1189</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="G15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="7">
+        <f t="shared" si="0"/>
+        <v>3.0883116883116881</v>
+      </c>
+      <c r="I15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1767</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="G16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="7">
+        <f t="shared" si="0"/>
+        <v>4.5896103896103897</v>
+      </c>
+      <c r="I16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DFD9826-6ADD-46A3-8E78-69E730E7C1FC}">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="3" width="9.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="6">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2">
+        <v>374</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="G4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" ref="H4:K16" si="0">IF(B4 = "","",(B4/$D$1))</f>
+        <v>0.97142857142857142</v>
+      </c>
+      <c r="I4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>434</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="G5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="0"/>
+        <v>1.1272727272727272</v>
+      </c>
+      <c r="I5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>566</v>
+      </c>
+      <c r="C6" s="2">
+        <v>353</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4701298701298702</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="0"/>
+        <v>0.91688311688311686</v>
+      </c>
+      <c r="J6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2">
+        <v>672</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.7454545454545454</v>
+      </c>
+      <c r="I7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <v>140</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="I8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1055</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="0"/>
+        <v>2.7402597402597402</v>
+      </c>
+      <c r="I9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
+        <v>995</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="0"/>
+        <v>2.5844155844155843</v>
+      </c>
+      <c r="I10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
+        <v>879</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="0"/>
+        <v>2.2831168831168833</v>
+      </c>
+      <c r="I11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2">
+        <v>792</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="G12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="0"/>
+        <v>2.0571428571428569</v>
+      </c>
+      <c r="I12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1118</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="G13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="0"/>
+        <v>2.9038961038961038</v>
+      </c>
+      <c r="I13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1172</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="G14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="0"/>
+        <v>3.0441558441558443</v>
+      </c>
+      <c r="I14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1182</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="G15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="7">
+        <f t="shared" si="0"/>
+        <v>3.07012987012987</v>
+      </c>
+      <c r="I15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1133</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="G16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="7">
+        <f t="shared" si="0"/>
+        <v>2.9428571428571431</v>
+      </c>
+      <c r="I16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA724508-FA86-48BB-A3F1-1FC4FEEF6A16}">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="3" width="9.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="6">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2">
+        <v>347</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="G4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" ref="H4:K16" si="0">IF(B4 = "","",(B4/$D$1))</f>
+        <v>0.90129870129870127</v>
+      </c>
+      <c r="I4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1041</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="G5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="0"/>
+        <v>2.703896103896104</v>
+      </c>
+      <c r="I5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>347</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
+        <v>0.90129870129870127</v>
+      </c>
+      <c r="I6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2">
+        <v>420</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.0909090909090908</v>
+      </c>
+      <c r="I7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <v>743</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
+        <v>1.92987012987013</v>
+      </c>
+      <c r="I8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1377</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="0"/>
+        <v>3.5766233766233766</v>
+      </c>
+      <c r="I9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1280</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="0"/>
+        <v>3.3246753246753249</v>
+      </c>
+      <c r="I10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1176</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="0"/>
+        <v>3.0545454545454547</v>
+      </c>
+      <c r="I11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1125</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1091</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="G12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="0"/>
+        <v>2.9220779220779223</v>
+      </c>
+      <c r="I12" s="7">
+        <f t="shared" si="0"/>
+        <v>2.8337662337662337</v>
+      </c>
+      <c r="J12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1026</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="G13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="0"/>
+        <v>2.6649350649350652</v>
+      </c>
+      <c r="I13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2">
+        <v>894</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="G14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="0"/>
+        <v>2.3220779220779222</v>
+      </c>
+      <c r="I14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1150</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="G15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="7">
+        <f t="shared" si="0"/>
+        <v>2.9870129870129869</v>
+      </c>
+      <c r="I15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1460</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="G16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="7">
+        <f t="shared" si="0"/>
+        <v>3.7922077922077921</v>
+      </c>
+      <c r="I16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F660714-8601-4E2F-B943-F269E7436E17}">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2485,7 +5144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{798B4A75-015F-4481-A866-0A3AEF6A7D83}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -3160,11 +5819,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0B5204-3871-4413-8844-74B7D13B39BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DAB40D4-3B38-4716-BDC6-333ABE60F521}">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3187,10 +5846,10 @@
     </row>
     <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -3198,9 +5857,11 @@
         <v>24</v>
       </c>
       <c r="B4" s="2">
-        <v>239</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="C4" s="2">
+        <v>474</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="G4" s="3" t="s">
@@ -3208,11 +5869,11 @@
       </c>
       <c r="H4" s="7">
         <f t="shared" ref="H4:K24" si="0">IF(B4 = "","",(B4/$D$1))</f>
-        <v>0.62077922077922076</v>
-      </c>
-      <c r="I4" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>1.051948051948052</v>
+      </c>
+      <c r="I4" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2311688311688311</v>
       </c>
       <c r="J4" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3227,20 +5888,24 @@
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="B5" s="2">
+        <v>507</v>
+      </c>
+      <c r="C5" s="2">
+        <v>405</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="G5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I5" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H5" s="7">
+        <f t="shared" si="0"/>
+        <v>1.316883116883117</v>
+      </c>
+      <c r="I5" s="7">
+        <f t="shared" si="0"/>
+        <v>1.051948051948052</v>
       </c>
       <c r="J5" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3255,20 +5920,24 @@
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="B6" s="2">
+        <v>435</v>
+      </c>
+      <c r="C6" s="2">
+        <v>578</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="G6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
+        <v>1.1298701298701299</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="0"/>
+        <v>1.5012987012987014</v>
       </c>
       <c r="J6" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3283,16 +5952,18 @@
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>572</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="G7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4857142857142858</v>
       </c>
       <c r="I7" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3311,16 +5982,18 @@
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>140</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
+        <v>0.36363636363636365</v>
       </c>
       <c r="I8" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3337,22 +6010,26 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="B9" s="2">
+        <v>471</v>
+      </c>
+      <c r="C9" s="2">
+        <v>698</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>15</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2233766233766235</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="0"/>
+        <v>1.8129870129870129</v>
       </c>
       <c r="J9" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3367,16 +6044,18 @@
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2">
+        <v>743</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="G10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H10" s="7">
+        <f t="shared" si="0"/>
+        <v>1.92987012987013</v>
       </c>
       <c r="I10" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3395,16 +6074,18 @@
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2">
+        <v>840</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="G11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H11" s="7">
+        <f t="shared" si="0"/>
+        <v>2.1818181818181817</v>
       </c>
       <c r="I11" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3423,16 +6104,18 @@
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2">
+        <v>788</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="G12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H12" s="7">
+        <f t="shared" si="0"/>
+        <v>2.0467532467532465</v>
       </c>
       <c r="I12" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3451,16 +6134,18 @@
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2">
+        <v>551</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="G13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H13" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4311688311688311</v>
       </c>
       <c r="I13" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3479,16 +6164,18 @@
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2">
+        <v>1000</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="G14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H14" s="7">
+        <f t="shared" si="0"/>
+        <v>2.5974025974025974</v>
       </c>
       <c r="I14" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3507,16 +6194,18 @@
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2">
+        <v>549</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="G15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H15" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4259740259740259</v>
       </c>
       <c r="I15" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3535,16 +6224,18 @@
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2">
+        <v>714</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="G16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H16" s="7">
+        <f t="shared" si="0"/>
+        <v>1.8545454545454545</v>
       </c>
       <c r="I16" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3563,16 +6254,18 @@
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="2">
+        <v>885</v>
+      </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="G17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H17" s="7">
+        <f t="shared" si="0"/>
+        <v>2.2987012987012987</v>
       </c>
       <c r="I17" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3591,16 +6284,18 @@
       <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="2">
+        <v>752</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="G18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H18" s="7">
+        <f t="shared" si="0"/>
+        <v>1.9532467532467532</v>
       </c>
       <c r="I18" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3619,16 +6314,18 @@
       <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="2">
+        <v>955</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="G19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H19" s="7">
+        <f t="shared" si="0"/>
+        <v>2.4805194805194803</v>
       </c>
       <c r="I19" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3647,20 +6344,24 @@
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="2">
+        <v>1127</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1170</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="G20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I20" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H20" s="7">
+        <f t="shared" si="0"/>
+        <v>2.9272727272727272</v>
+      </c>
+      <c r="I20" s="7">
+        <f t="shared" si="0"/>
+        <v>3.0389610389610389</v>
       </c>
       <c r="J20" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3675,16 +6376,18 @@
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="2">
+        <v>1305</v>
+      </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="G21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H21" s="7">
+        <f t="shared" si="0"/>
+        <v>3.3896103896103895</v>
       </c>
       <c r="I21" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3703,16 +6406,18 @@
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="2">
+        <v>1132</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="G22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H22" s="7">
+        <f t="shared" si="0"/>
+        <v>2.9402597402597404</v>
       </c>
       <c r="I22" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3731,16 +6436,18 @@
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="2">
+        <v>1327</v>
+      </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="G23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H23" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H23" s="7">
+        <f t="shared" si="0"/>
+        <v>3.4467532467532469</v>
       </c>
       <c r="I23" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3759,16 +6466,18 @@
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="2">
+        <v>870</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="G24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H24" s="7">
+        <f t="shared" si="0"/>
+        <v>2.2597402597402598</v>
       </c>
       <c r="I24" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3790,11 +6499,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DFD9826-6ADD-46A3-8E78-69E730E7C1FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC125AB-FA9C-412A-A228-EE71D8CF4222}">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3817,10 +6526,10 @@
     </row>
     <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -3828,9 +6537,11 @@
         <v>24</v>
       </c>
       <c r="B4" s="2">
-        <v>239</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>980</v>
+      </c>
+      <c r="C4" s="2">
+        <v>767</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="G4" s="3" t="s">
@@ -3838,11 +6549,11 @@
       </c>
       <c r="H4" s="7">
         <f t="shared" ref="H4:K24" si="0">IF(B4 = "","",(B4/$D$1))</f>
-        <v>0.62077922077922076</v>
-      </c>
-      <c r="I4" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>2.5454545454545454</v>
+      </c>
+      <c r="I4" s="7">
+        <f t="shared" si="0"/>
+        <v>1.9922077922077923</v>
       </c>
       <c r="J4" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3857,16 +6568,18 @@
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>459</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="G5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H5" s="7">
+        <f t="shared" si="0"/>
+        <v>1.1922077922077923</v>
       </c>
       <c r="I5" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3885,16 +6598,18 @@
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2">
+        <v>673</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="G6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
+        <v>1.7480519480519481</v>
       </c>
       <c r="I6" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3913,16 +6628,18 @@
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>1325</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="G7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
+        <v>3.4415584415584415</v>
       </c>
       <c r="I7" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3941,16 +6658,18 @@
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>792</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
+        <v>2.0571428571428569</v>
       </c>
       <c r="I8" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3967,22 +6686,26 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="B9" s="2">
+        <v>567</v>
+      </c>
+      <c r="C9" s="2">
+        <v>469</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>15</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4727272727272727</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2181818181818183</v>
       </c>
       <c r="J9" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3997,20 +6720,24 @@
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="B10" s="2">
+        <v>1125</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1091</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="G10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I10" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H10" s="7">
+        <f t="shared" si="0"/>
+        <v>2.9220779220779223</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" si="0"/>
+        <v>2.8337662337662337</v>
       </c>
       <c r="J10" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4025,20 +6752,24 @@
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="B11" s="2">
+        <v>1674</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1556</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="G11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I11" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H11" s="7">
+        <f t="shared" si="0"/>
+        <v>4.3480519480519479</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="0"/>
+        <v>4.0415584415584416</v>
       </c>
       <c r="J11" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4053,16 +6784,18 @@
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2">
+        <v>1498</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="G12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H12" s="7">
+        <f t="shared" si="0"/>
+        <v>3.8909090909090911</v>
       </c>
       <c r="I12" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4081,16 +6814,18 @@
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2">
+        <v>1273</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="G13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H13" s="7">
+        <f t="shared" si="0"/>
+        <v>3.3064935064935064</v>
       </c>
       <c r="I13" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4109,16 +6844,18 @@
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2">
+        <v>1793</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="G14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H14" s="7">
+        <f t="shared" si="0"/>
+        <v>4.6571428571428575</v>
       </c>
       <c r="I14" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4137,16 +6874,18 @@
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2">
+        <v>711</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="G15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H15" s="7">
+        <f t="shared" si="0"/>
+        <v>1.8467532467532468</v>
       </c>
       <c r="I15" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4165,16 +6904,18 @@
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2">
+        <v>596</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="G16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H16" s="7">
+        <f t="shared" si="0"/>
+        <v>1.5480519480519481</v>
       </c>
       <c r="I16" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4193,20 +6934,24 @@
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="B17" s="2">
+        <v>622</v>
+      </c>
+      <c r="C17" s="2">
+        <v>684</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="G17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I17" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H17" s="7">
+        <f t="shared" si="0"/>
+        <v>1.6155844155844157</v>
+      </c>
+      <c r="I17" s="7">
+        <f t="shared" si="0"/>
+        <v>1.7766233766233765</v>
       </c>
       <c r="J17" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4219,18 +6964,20 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B18" s="2">
+        <v>752</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="G18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>4</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" si="0"/>
+        <v>1.9532467532467532</v>
       </c>
       <c r="I18" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4249,16 +6996,18 @@
       <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="2">
+        <v>213</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="G19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H19" s="7">
+        <f t="shared" si="0"/>
+        <v>0.55324675324675321</v>
       </c>
       <c r="I19" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4277,16 +7026,18 @@
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="2">
+        <v>739</v>
+      </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="G20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H20" s="7">
+        <f t="shared" si="0"/>
+        <v>1.9194805194805196</v>
       </c>
       <c r="I20" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4305,16 +7056,18 @@
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="2">
+        <v>893</v>
+      </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="G21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H21" s="7">
+        <f t="shared" si="0"/>
+        <v>2.3194805194805195</v>
       </c>
       <c r="I21" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4333,16 +7086,18 @@
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="2">
+        <v>487</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="G22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H22" s="7">
+        <f t="shared" si="0"/>
+        <v>1.264935064935065</v>
       </c>
       <c r="I22" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4361,16 +7116,18 @@
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="2">
+        <v>582</v>
+      </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="G23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H23" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H23" s="7">
+        <f t="shared" si="0"/>
+        <v>1.5116883116883117</v>
       </c>
       <c r="I23" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4389,16 +7146,18 @@
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="2">
+        <v>913</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="G24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H24" s="7">
+        <f t="shared" si="0"/>
+        <v>2.3714285714285714</v>
       </c>
       <c r="I24" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4420,11 +7179,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DAB40D4-3B38-4716-BDC6-333ABE60F521}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AE5AE0-2A78-4420-9601-2B9791327A68}">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4447,10 +7206,10 @@
     </row>
     <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -4458,7 +7217,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="2">
-        <v>239</v>
+        <v>700</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -4468,7 +7227,7 @@
       </c>
       <c r="H4" s="7">
         <f t="shared" ref="H4:K24" si="0">IF(B4 = "","",(B4/$D$1))</f>
-        <v>0.62077922077922076</v>
+        <v>1.8181818181818181</v>
       </c>
       <c r="I4" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4487,16 +7246,18 @@
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>582</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="G5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H5" s="7">
+        <f t="shared" si="0"/>
+        <v>1.5116883116883117</v>
       </c>
       <c r="I5" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4515,16 +7276,18 @@
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2">
+        <v>680</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="G6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
+        <v>1.7662337662337662</v>
       </c>
       <c r="I6" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4543,16 +7306,18 @@
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>1543</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="G7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
+        <v>4.0077922077922077</v>
       </c>
       <c r="I7" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4571,16 +7336,18 @@
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>1118</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
+        <v>2.9038961038961038</v>
       </c>
       <c r="I8" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4597,18 +7364,20 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="B9" s="2">
+        <v>393</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>15</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="0"/>
+        <v>1.0207792207792208</v>
       </c>
       <c r="I9" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4627,16 +7396,18 @@
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2">
+        <v>1026</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="G10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H10" s="7">
+        <f t="shared" si="0"/>
+        <v>2.6649350649350652</v>
       </c>
       <c r="I10" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4655,20 +7426,24 @@
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="B11" s="2">
+        <v>1550</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1750</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="G11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I11" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H11" s="7">
+        <f t="shared" si="0"/>
+        <v>4.0259740259740262</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="0"/>
+        <v>4.5454545454545459</v>
       </c>
       <c r="J11" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4683,16 +7458,18 @@
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2">
+        <v>1680</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="G12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H12" s="7">
+        <f t="shared" si="0"/>
+        <v>4.3636363636363633</v>
       </c>
       <c r="I12" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4711,16 +7488,18 @@
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2">
+        <v>1441</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="G13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H13" s="7">
+        <f t="shared" si="0"/>
+        <v>3.7428571428571429</v>
       </c>
       <c r="I13" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4739,16 +7518,18 @@
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2">
+        <v>1900</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="G14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H14" s="7">
+        <f t="shared" si="0"/>
+        <v>4.9350649350649354</v>
       </c>
       <c r="I14" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4767,16 +7548,18 @@
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2">
+        <v>927</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="G15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H15" s="7">
+        <f t="shared" si="0"/>
+        <v>2.4077922077922076</v>
       </c>
       <c r="I15" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4795,16 +7578,18 @@
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2">
+        <v>660</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="G16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H16" s="7">
+        <f t="shared" si="0"/>
+        <v>1.7142857142857142</v>
       </c>
       <c r="I16" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4823,16 +7608,18 @@
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="2">
+        <v>517</v>
+      </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="G17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H17" s="7">
+        <f t="shared" si="0"/>
+        <v>1.3428571428571427</v>
       </c>
       <c r="I17" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4849,18 +7636,20 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B18" s="2">
+        <v>955</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="G18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>4</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" si="0"/>
+        <v>2.4805194805194803</v>
       </c>
       <c r="I18" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4877,18 +7666,20 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="B19" s="2">
+        <v>213</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="G19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>13</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" si="0"/>
+        <v>0.55324675324675321</v>
       </c>
       <c r="I19" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4907,16 +7698,18 @@
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="2">
+        <v>325</v>
+      </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="G20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H20" s="7">
+        <f t="shared" si="0"/>
+        <v>0.8441558441558441</v>
       </c>
       <c r="I20" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4935,16 +7728,18 @@
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="2">
+        <v>303</v>
+      </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="G21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H21" s="7">
+        <f t="shared" si="0"/>
+        <v>0.78701298701298705</v>
       </c>
       <c r="I21" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4963,16 +7758,18 @@
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="2">
+        <v>247</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="G22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H22" s="7">
+        <f t="shared" si="0"/>
+        <v>0.64155844155844155</v>
       </c>
       <c r="I22" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4991,16 +7788,18 @@
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="2">
+        <v>361</v>
+      </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="G23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H23" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H23" s="7">
+        <f t="shared" si="0"/>
+        <v>0.93766233766233764</v>
       </c>
       <c r="I23" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5019,16 +7818,18 @@
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="2">
+        <v>1020</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="G24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H24" s="7">
+        <f t="shared" si="0"/>
+        <v>2.6493506493506493</v>
       </c>
       <c r="I24" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5050,11 +7851,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1ED6C86-223A-4D11-8A25-0D0C1430867E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA76654-DC43-4F17-9C08-51A277205AC1}">
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5077,28 +7878,26 @@
     </row>
     <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="2">
-        <v>239</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="G4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="7" t="str">
         <f t="shared" ref="H4:K24" si="0">IF(B4 = "","",(B4/$D$1))</f>
-        <v>0.62077922077922076</v>
+        <v/>
       </c>
       <c r="I4" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5227,14 +8026,14 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="G9" s="3" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H9" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5285,16 +8084,18 @@
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2">
+        <v>1717</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="G11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H11" s="7">
+        <f t="shared" si="0"/>
+        <v>4.4597402597402596</v>
       </c>
       <c r="I11" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5313,16 +8114,18 @@
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2">
+        <v>1623</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="G12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H12" s="7">
+        <f t="shared" si="0"/>
+        <v>4.2155844155844155</v>
       </c>
       <c r="I12" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5341,16 +8144,18 @@
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2">
+        <v>1484</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="G13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H13" s="7">
+        <f t="shared" si="0"/>
+        <v>3.8545454545454545</v>
       </c>
       <c r="I13" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5369,16 +8174,18 @@
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2">
+        <v>1589</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="G14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H14" s="7">
+        <f t="shared" si="0"/>
+        <v>4.127272727272727</v>
       </c>
       <c r="I14" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5397,16 +8204,18 @@
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2">
+        <v>273</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="G15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.70909090909090911</v>
       </c>
       <c r="I15" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5423,14 +8232,14 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="G16" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5453,16 +8262,18 @@
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="2">
+        <v>310</v>
+      </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="G17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H17" s="7">
+        <f t="shared" si="0"/>
+        <v>0.80519480519480524</v>
       </c>
       <c r="I17" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5479,14 +8290,14 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="G18" s="3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H18" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5537,16 +8348,18 @@
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="2">
+        <v>1070</v>
+      </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="G20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H20" s="7">
+        <f t="shared" si="0"/>
+        <v>2.779220779220779</v>
       </c>
       <c r="I20" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5565,16 +8378,18 @@
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="2">
+        <v>1042</v>
+      </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="G21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H21" s="7">
+        <f t="shared" si="0"/>
+        <v>2.7064935064935063</v>
       </c>
       <c r="I21" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5593,16 +8408,18 @@
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="2">
+        <v>859</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="G22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H22" s="7">
+        <f t="shared" si="0"/>
+        <v>2.2311688311688314</v>
       </c>
       <c r="I22" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5621,16 +8438,18 @@
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="2">
+        <v>718</v>
+      </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="G23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H23" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H23" s="7">
+        <f t="shared" si="0"/>
+        <v>1.8649350649350649</v>
       </c>
       <c r="I23" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5649,16 +8468,666 @@
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="2">
+        <v>379</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="G24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H24" s="7">
+        <f t="shared" si="0"/>
+        <v>0.98441558441558441</v>
+      </c>
+      <c r="I24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448803A2-FFAF-42E3-9A90-5D1FDCF2DFE8}">
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="3" width="9.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="6">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="G4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="7" t="str">
+        <f t="shared" ref="H4:K24" si="0">IF(B4 = "","",(B4/$D$1))</f>
+        <v/>
+      </c>
+      <c r="I4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="G5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1644</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="0"/>
+        <v>4.2701298701298702</v>
+      </c>
+      <c r="I11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1565</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="G12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="0"/>
+        <v>4.0649350649350646</v>
+      </c>
+      <c r="I12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1339</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="G13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="7">
+        <f>IF(B13 = "","",(B13/$D$1))</f>
+        <v>3.4779220779220781</v>
+      </c>
+      <c r="I13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1475</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="G14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="0"/>
+        <v>3.831168831168831</v>
+      </c>
+      <c r="I14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="G15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="G16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2">
+        <v>509</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="G17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" si="0"/>
+        <v>1.3220779220779222</v>
+      </c>
+      <c r="I17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="G19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1179</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="0"/>
+        <v>3.0623376623376624</v>
+      </c>
+      <c r="I20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1330</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" si="0"/>
+        <v>3.4545454545454546</v>
+      </c>
+      <c r="I21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1100</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="0"/>
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="I22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>989</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="7">
+        <f>IF(B23 = "","",(B23/$D$1))</f>
+        <v>2.5688311688311689</v>
+      </c>
+      <c r="I23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>270</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="G24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="7">
+        <f t="shared" si="0"/>
+        <v>0.70129870129870131</v>
       </c>
       <c r="I24" s="7" t="str">
         <f t="shared" si="0"/>

--- a/Documents/Distances.xlsx
+++ b/Documents/Distances.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Hutson\Source\Repos\CS473FinalProject\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Hutson\source\repos\CS473FinalProject\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7968" firstSheet="4" activeTab="10" xr2:uid="{D91A8DBA-E9BB-45E3-84D0-FA2F40E38D3D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" tabRatio="752" firstSheet="4" activeTab="10" xr2:uid="{D91A8DBA-E9BB-45E3-84D0-FA2F40E38D3D}"/>
   </bookViews>
   <sheets>
     <sheet name="From Johnston" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="51">
   <si>
     <t>Library</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>Average Walking Speed (feet/minute):</t>
-  </si>
-  <si>
-    <t>The Art Building</t>
   </si>
   <si>
     <t>Westminster</t>
@@ -192,7 +189,7 @@
     <t>Times (minutes) from Westminster to…</t>
   </si>
   <si>
-    <t>The Music Building</t>
+    <t>Art Building</t>
   </si>
 </sst>
 </file>
@@ -580,18 +577,18 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
-    <col min="2" max="3" width="9.109375" style="2" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="2"/>
-    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" style="2"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -599,7 +596,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -607,7 +604,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -634,7 +631,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -664,7 +661,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -694,7 +691,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -724,7 +721,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -751,7 +748,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -781,7 +778,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -808,7 +805,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -838,7 +835,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -868,7 +865,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -898,7 +895,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -925,7 +922,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
@@ -955,7 +952,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
@@ -985,7 +982,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
@@ -1012,7 +1009,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
@@ -1042,7 +1039,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
@@ -1069,15 +1066,15 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B20" s="2">
         <v>756</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="0"/>
@@ -1096,9 +1093,9 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>1040</v>
@@ -1107,7 +1104,7 @@
         <v>977</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" si="0"/>
@@ -1126,9 +1123,9 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>916</v>
@@ -1137,7 +1134,7 @@
         <v>1024</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" si="0"/>
@@ -1148,9 +1145,9 @@
         <v>2.6597402597402597</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>1114</v>
@@ -1159,7 +1156,7 @@
         <v>1016</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" si="0"/>
@@ -1170,9 +1167,9 @@
         <v>2.638961038961039</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>1281</v>
@@ -1181,7 +1178,7 @@
         <v>1102</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="0"/>
@@ -1203,17 +1200,17 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
-    <col min="2" max="3" width="9.109375" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1221,35 +1218,39 @@
         <v>385</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1281</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1102</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="G4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="7" t="str">
+        <v>23</v>
+      </c>
+      <c r="H4" s="7">
         <f t="shared" ref="H4:K24" si="0">IF(B4 = "","",(B4/$D$1))</f>
-        <v/>
-      </c>
-      <c r="I4" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>3.3272727272727272</v>
+      </c>
+      <c r="I4" s="7">
+        <f t="shared" si="0"/>
+        <v>2.8623376623376622</v>
       </c>
       <c r="J4" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1260,20 +1261,22 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>782</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="G5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H5" s="7">
+        <f t="shared" si="0"/>
+        <v>2.0311688311688312</v>
       </c>
       <c r="I5" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1288,20 +1291,22 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2">
+        <v>1256</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="G6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
+        <v>3.2623376623376625</v>
       </c>
       <c r="I6" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1316,20 +1321,22 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>1767</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="G7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
+        <v>4.5896103896103897</v>
       </c>
       <c r="I7" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1344,20 +1351,22 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>1133</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
+        <v>2.9428571428571431</v>
       </c>
       <c r="I8" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1372,20 +1381,22 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2">
+        <v>1009</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="G9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H9" s="7">
+        <f t="shared" si="0"/>
+        <v>2.6207792207792209</v>
       </c>
       <c r="I9" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1400,20 +1411,22 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2">
+        <v>1460</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="G10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H10" s="7">
+        <f t="shared" si="0"/>
+        <v>3.7922077922077921</v>
       </c>
       <c r="I10" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1428,7 +1441,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -1458,7 +1471,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -1488,7 +1501,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -1518,7 +1531,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -1548,20 +1561,22 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2">
+        <v>379</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="G15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.98441558441558441</v>
       </c>
       <c r="I15" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1576,20 +1591,22 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2">
+        <v>913</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="G16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H16" s="7">
+        <f t="shared" si="0"/>
+        <v>2.3714285714285714</v>
       </c>
       <c r="I16" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1604,7 +1621,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
@@ -1634,20 +1651,22 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="2">
+        <v>870</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H18" s="7">
+        <f t="shared" si="0"/>
+        <v>2.2597402597402598</v>
       </c>
       <c r="I18" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1662,20 +1681,22 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="2">
+        <v>1020</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="G19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H19" s="7">
+        <f t="shared" si="0"/>
+        <v>2.6493506493506493</v>
       </c>
       <c r="I19" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1690,9 +1711,9 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B20" s="2">
         <v>1429</v>
@@ -1701,28 +1722,28 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="G20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="0"/>
+        <v>3.7116883116883117</v>
+      </c>
+      <c r="I20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <f t="shared" si="0"/>
-        <v>3.7116883116883117</v>
-      </c>
-      <c r="I20" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J20" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K20" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="B21" s="2">
         <v>1654</v>
@@ -1731,28 +1752,28 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="G21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" si="0"/>
+        <v>4.2961038961038964</v>
+      </c>
+      <c r="I21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="H21" s="7">
-        <f t="shared" si="0"/>
-        <v>4.2961038961038964</v>
-      </c>
-      <c r="I21" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J21" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K21" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="B22" s="2">
         <v>886</v>
@@ -1761,28 +1782,28 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="G22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="0"/>
+        <v>2.3012987012987014</v>
+      </c>
+      <c r="I22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="H22" s="7">
-        <f t="shared" si="0"/>
-        <v>2.3012987012987014</v>
-      </c>
-      <c r="I22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="B23" s="2">
         <v>796</v>
@@ -1791,7 +1812,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="G23" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H23" s="7">
         <f>IF(B23 = "","",(B23/$D$1))</f>
@@ -1810,20 +1831,22 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="2">
+        <v>270</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="G24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H24" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H24" s="7">
+        <f t="shared" si="0"/>
+        <v>0.70129870129870131</v>
       </c>
       <c r="I24" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1848,18 +1871,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD786D4E-473E-4B57-9F10-60F1F23A6A8E}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
-    <col min="2" max="3" width="9.109375" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1867,35 +1890,39 @@
         <v>385</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1040</v>
+      </c>
+      <c r="C4" s="2">
+        <v>977</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="G4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="7" t="str">
+        <v>23</v>
+      </c>
+      <c r="H4" s="7">
         <f t="shared" ref="H4:K24" si="0">IF(B4 = "","",(B4/$D$1))</f>
-        <v/>
-      </c>
-      <c r="I4" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>2.7012987012987013</v>
+      </c>
+      <c r="I4" s="7">
+        <f t="shared" si="0"/>
+        <v>2.5376623376623377</v>
       </c>
       <c r="J4" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1906,20 +1933,22 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>1064</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="G5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H5" s="7">
+        <f t="shared" si="0"/>
+        <v>2.7636363636363637</v>
       </c>
       <c r="I5" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1934,20 +1963,22 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2">
+        <v>680</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="G6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
+        <v>1.7662337662337662</v>
       </c>
       <c r="I6" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1962,20 +1993,22 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>1189</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="G7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
+        <v>3.0883116883116881</v>
       </c>
       <c r="I7" s="7" t="str">
         <f t="shared" si="0"/>
@@ -1990,20 +2023,22 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>1182</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
+        <v>3.07012987012987</v>
       </c>
       <c r="I8" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2018,20 +2053,22 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2">
+        <v>705</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="G9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H9" s="7">
+        <f t="shared" si="0"/>
+        <v>1.8311688311688312</v>
       </c>
       <c r="I9" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2046,20 +2083,22 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2">
+        <v>1150</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="G10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H10" s="7">
+        <f t="shared" si="0"/>
+        <v>2.9870129870129869</v>
       </c>
       <c r="I10" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2074,7 +2113,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -2104,7 +2143,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -2134,7 +2173,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -2164,7 +2203,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -2194,20 +2233,22 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2">
+        <v>1042</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="G15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H15" s="7">
+        <f t="shared" si="0"/>
+        <v>2.7064935064935063</v>
       </c>
       <c r="I15" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2222,20 +2263,22 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2">
+        <v>893</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="G16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H16" s="7">
+        <f t="shared" si="0"/>
+        <v>2.3194805194805195</v>
       </c>
       <c r="I16" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2250,7 +2293,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
@@ -2280,20 +2323,22 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="2">
+        <v>1305</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H18" s="7">
+        <f t="shared" si="0"/>
+        <v>3.3896103896103895</v>
       </c>
       <c r="I18" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2308,20 +2353,22 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="2">
+        <v>303</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="G19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H19" s="7">
+        <f t="shared" si="0"/>
+        <v>0.78701298701298705</v>
       </c>
       <c r="I19" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2336,9 +2383,9 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B20" s="2">
         <v>297</v>
@@ -2347,7 +2394,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="G20" s="3" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="0"/>
@@ -2366,20 +2413,22 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1654</v>
+      </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="G21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H21" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>22</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" si="0"/>
+        <v>4.2961038961038964</v>
       </c>
       <c r="I21" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2394,9 +2443,9 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>591</v>
@@ -2405,28 +2454,28 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="G22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="0"/>
+        <v>1.535064935064935</v>
+      </c>
+      <c r="I22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="H22" s="7">
-        <f t="shared" si="0"/>
-        <v>1.535064935064935</v>
-      </c>
-      <c r="I22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="B23" s="2">
         <v>702</v>
@@ -2435,7 +2484,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="G23" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H23" s="7">
         <f>IF(B23 = "","",(B23/$D$1))</f>
@@ -2454,20 +2503,22 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="2">
+        <v>1330</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="G24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H24" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H24" s="7">
+        <f t="shared" si="0"/>
+        <v>3.4545454545454546</v>
       </c>
       <c r="I24" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2493,17 +2544,17 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
-    <col min="2" max="3" width="9.109375" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2511,20 +2562,20 @@
         <v>385</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2">
         <v>405</v>
@@ -2535,7 +2586,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="G4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" s="7">
         <f t="shared" ref="H4:K16" si="0">IF(B4 = "","",(B4/$D$1))</f>
@@ -2554,7 +2605,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -2584,7 +2635,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -2614,7 +2665,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -2644,7 +2695,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -2674,7 +2725,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -2704,7 +2755,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -2736,7 +2787,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -2768,7 +2819,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -2798,7 +2849,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -2828,9 +2879,9 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B14" s="2">
         <v>954</v>
@@ -2839,28 +2890,28 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="G14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="0"/>
+        <v>2.4779220779220781</v>
+      </c>
+      <c r="I14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="H14" s="7">
-        <f t="shared" si="0"/>
-        <v>2.4779220779220781</v>
-      </c>
-      <c r="I14" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J14" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K14" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="B15" s="2">
         <v>1189</v>
@@ -2869,7 +2920,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="G15" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <f t="shared" si="0"/>
@@ -2888,9 +2939,9 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2">
         <v>1767</v>
@@ -2899,7 +2950,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="G16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H16" s="7">
         <f t="shared" si="0"/>
@@ -2929,17 +2980,17 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
-    <col min="2" max="3" width="9.109375" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2947,20 +2998,20 @@
         <v>385</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2">
         <v>374</v>
@@ -2969,7 +3020,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="G4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" s="7">
         <f t="shared" ref="H4:K16" si="0">IF(B4 = "","",(B4/$D$1))</f>
@@ -2988,7 +3039,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -3018,7 +3069,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -3050,7 +3101,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -3080,7 +3131,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -3110,7 +3161,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -3140,7 +3191,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -3170,7 +3221,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -3200,7 +3251,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -3230,7 +3281,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -3260,9 +3311,9 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B14" s="2">
         <v>1172</v>
@@ -3271,28 +3322,28 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="G14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="0"/>
+        <v>3.0441558441558443</v>
+      </c>
+      <c r="I14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="H14" s="7">
-        <f t="shared" si="0"/>
-        <v>3.0441558441558443</v>
-      </c>
-      <c r="I14" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J14" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K14" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="B15" s="2">
         <v>1182</v>
@@ -3301,7 +3352,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="G15" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <f t="shared" si="0"/>
@@ -3320,9 +3371,9 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2">
         <v>1133</v>
@@ -3331,7 +3382,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="G16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H16" s="7">
         <f t="shared" si="0"/>
@@ -3361,17 +3412,17 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
-    <col min="2" max="3" width="9.109375" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -3379,20 +3430,20 @@
         <v>385</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2">
         <v>347</v>
@@ -3401,7 +3452,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="G4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" s="7">
         <f t="shared" ref="H4:K16" si="0">IF(B4 = "","",(B4/$D$1))</f>
@@ -3420,7 +3471,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -3450,7 +3501,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -3480,7 +3531,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -3510,7 +3561,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -3540,7 +3591,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -3570,7 +3621,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -3600,7 +3651,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -3630,7 +3681,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -3662,7 +3713,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
@@ -3692,9 +3743,9 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B14" s="2">
         <v>894</v>
@@ -3703,28 +3754,28 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="G14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="0"/>
+        <v>2.3220779220779222</v>
+      </c>
+      <c r="I14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="H14" s="7">
-        <f t="shared" si="0"/>
-        <v>2.3220779220779222</v>
-      </c>
-      <c r="I14" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J14" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K14" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="B15" s="2">
         <v>1150</v>
@@ -3733,7 +3784,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="G15" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <f t="shared" si="0"/>
@@ -3752,9 +3803,9 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2">
         <v>1460</v>
@@ -3763,7 +3814,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="G16" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H16" s="7">
         <f t="shared" si="0"/>
@@ -3793,17 +3844,17 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
-    <col min="2" max="3" width="9.109375" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -3811,20 +3862,20 @@
         <v>385</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2">
         <v>239</v>
@@ -3833,7 +3884,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="G4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" s="7">
         <f t="shared" ref="H4:H24" si="0">IF(B4 = "","",(B4/$D$1))</f>
@@ -3852,7 +3903,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -3884,7 +3935,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -3914,7 +3965,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -3944,7 +3995,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -3974,7 +4025,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -4006,7 +4057,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -4036,7 +4087,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -4066,7 +4117,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -4096,7 +4147,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -4126,7 +4177,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -4156,7 +4207,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
@@ -4186,7 +4237,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
@@ -4216,7 +4267,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
@@ -4246,7 +4297,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
@@ -4278,7 +4329,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
@@ -4308,9 +4359,9 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B20" s="2">
         <v>493</v>
@@ -4319,7 +4370,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="G20" s="3" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="0"/>
@@ -4338,9 +4389,9 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
         <v>705</v>
@@ -4349,7 +4400,7 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="G21" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" si="0"/>
@@ -4368,9 +4419,9 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
         <v>590</v>
@@ -4379,7 +4430,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="G22" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" si="0"/>
@@ -4398,9 +4449,9 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
         <v>743</v>
@@ -4409,7 +4460,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="G23" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" si="0"/>
@@ -4428,9 +4479,9 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>1009</v>
@@ -4439,7 +4490,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="G24" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="0"/>
@@ -4469,17 +4520,17 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
-    <col min="2" max="3" width="9.109375" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -4487,20 +4538,20 @@
         <v>385</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2">
         <v>419</v>
@@ -4511,7 +4562,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="G4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" s="7">
         <f t="shared" ref="H4:K24" si="0">IF(B4 = "","",(B4/$D$1))</f>
@@ -4530,7 +4581,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -4562,7 +4613,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -4592,7 +4643,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -4622,7 +4673,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -4652,7 +4703,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -4684,7 +4735,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -4714,7 +4765,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -4744,7 +4795,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -4774,7 +4825,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -4804,7 +4855,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -4834,7 +4885,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
@@ -4864,7 +4915,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
@@ -4894,7 +4945,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
@@ -4924,7 +4975,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
@@ -4954,7 +5005,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
@@ -4984,9 +5035,9 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B20" s="2">
         <v>868</v>
@@ -4995,28 +5046,28 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="G20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="0"/>
+        <v>2.2545454545454544</v>
+      </c>
+      <c r="I20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <f t="shared" si="0"/>
-        <v>2.2545454545454544</v>
-      </c>
-      <c r="I20" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J20" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K20" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="B21" s="2">
         <v>1064</v>
@@ -5025,28 +5076,28 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="G21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" si="0"/>
+        <v>2.7636363636363637</v>
+      </c>
+      <c r="I21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="H21" s="7">
-        <f t="shared" si="0"/>
-        <v>2.7636363636363637</v>
-      </c>
-      <c r="I21" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J21" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K21" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="B22" s="2">
         <v>788</v>
@@ -5055,28 +5106,28 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="G22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="0"/>
+        <v>2.0467532467532465</v>
+      </c>
+      <c r="I22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="H22" s="7">
-        <f t="shared" si="0"/>
-        <v>2.0467532467532465</v>
-      </c>
-      <c r="I22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="B23" s="2">
         <v>914</v>
@@ -5085,28 +5136,28 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="G23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" si="0"/>
+        <v>2.3740259740259742</v>
+      </c>
+      <c r="I23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="H23" s="7">
-        <f t="shared" si="0"/>
-        <v>2.3740259740259742</v>
-      </c>
-      <c r="I23" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J23" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K23" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="B24" s="2">
         <v>782</v>
@@ -5115,7 +5166,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="G24" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="0"/>
@@ -5145,17 +5196,17 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
-    <col min="2" max="3" width="9.109375" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5163,20 +5214,20 @@
         <v>385</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2">
         <v>273</v>
@@ -5187,7 +5238,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="G4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" s="7">
         <f t="shared" ref="H4:K24" si="0">IF(B4 = "","",(B4/$D$1))</f>
@@ -5206,7 +5257,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -5236,7 +5287,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -5266,7 +5317,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -5296,7 +5347,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -5328,7 +5379,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -5360,7 +5411,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -5390,7 +5441,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -5422,7 +5473,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -5452,7 +5503,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -5482,7 +5533,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -5512,7 +5563,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
@@ -5542,7 +5593,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
@@ -5572,7 +5623,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
@@ -5602,7 +5653,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
@@ -5632,7 +5683,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
@@ -5662,9 +5713,9 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B20" s="2">
         <v>1041</v>
@@ -5673,28 +5724,28 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="G20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="0"/>
+        <v>2.703896103896104</v>
+      </c>
+      <c r="I20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <f t="shared" si="0"/>
-        <v>2.703896103896104</v>
-      </c>
-      <c r="I20" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J20" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K20" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="B21" s="2">
         <v>1245</v>
@@ -5703,28 +5754,28 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="G21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" si="0"/>
+        <v>3.2337662337662336</v>
+      </c>
+      <c r="I21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="H21" s="7">
-        <f t="shared" si="0"/>
-        <v>3.2337662337662336</v>
-      </c>
-      <c r="I21" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J21" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K21" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="B22" s="2">
         <v>939</v>
@@ -5733,28 +5784,28 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="G22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="0"/>
+        <v>2.4389610389610388</v>
+      </c>
+      <c r="I22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="H22" s="7">
-        <f t="shared" si="0"/>
-        <v>2.4389610389610388</v>
-      </c>
-      <c r="I22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="B23" s="2">
         <v>1057</v>
@@ -5763,28 +5814,28 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="G23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" si="0"/>
+        <v>2.7454545454545456</v>
+      </c>
+      <c r="I23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="H23" s="7">
-        <f t="shared" si="0"/>
-        <v>2.7454545454545456</v>
-      </c>
-      <c r="I23" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J23" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K23" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="B24" s="2">
         <v>1256</v>
@@ -5793,7 +5844,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="G24" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="0"/>
@@ -5823,17 +5874,17 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
-    <col min="2" max="3" width="9.109375" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -5841,20 +5892,20 @@
         <v>385</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2">
         <v>405</v>
@@ -5865,7 +5916,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="G4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" s="7">
         <f t="shared" ref="H4:K24" si="0">IF(B4 = "","",(B4/$D$1))</f>
@@ -5884,7 +5935,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -5916,7 +5967,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -5948,7 +5999,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -5978,7 +6029,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -6008,7 +6059,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -6040,7 +6091,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -6070,7 +6121,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -6100,7 +6151,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -6130,7 +6181,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -6160,7 +6211,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -6190,7 +6241,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
@@ -6220,7 +6271,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
@@ -6250,7 +6301,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
@@ -6280,7 +6331,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
@@ -6310,7 +6361,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
@@ -6340,9 +6391,9 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B20" s="2">
         <v>1127</v>
@@ -6353,28 +6404,28 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="G20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="0"/>
+        <v>2.9272727272727272</v>
+      </c>
+      <c r="I20" s="7">
+        <f t="shared" si="0"/>
+        <v>3.0389610389610389</v>
+      </c>
+      <c r="J20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <f t="shared" si="0"/>
-        <v>2.9272727272727272</v>
-      </c>
-      <c r="I20" s="7">
-        <f t="shared" si="0"/>
-        <v>3.0389610389610389</v>
-      </c>
-      <c r="J20" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K20" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="B21" s="2">
         <v>1305</v>
@@ -6383,28 +6434,28 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="G21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" si="0"/>
+        <v>3.3896103896103895</v>
+      </c>
+      <c r="I21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="H21" s="7">
-        <f t="shared" si="0"/>
-        <v>3.3896103896103895</v>
-      </c>
-      <c r="I21" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J21" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K21" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="B22" s="2">
         <v>1132</v>
@@ -6413,28 +6464,28 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="G22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="0"/>
+        <v>2.9402597402597404</v>
+      </c>
+      <c r="I22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="H22" s="7">
-        <f t="shared" si="0"/>
-        <v>2.9402597402597404</v>
-      </c>
-      <c r="I22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="B23" s="2">
         <v>1327</v>
@@ -6443,28 +6494,28 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="G23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" si="0"/>
+        <v>3.4467532467532469</v>
+      </c>
+      <c r="I23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="H23" s="7">
-        <f t="shared" si="0"/>
-        <v>3.4467532467532469</v>
-      </c>
-      <c r="I23" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J23" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K23" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="B24" s="2">
         <v>870</v>
@@ -6473,7 +6524,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="G24" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="0"/>
@@ -6503,17 +6554,17 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
-    <col min="2" max="3" width="9.109375" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -6521,20 +6572,20 @@
         <v>385</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2">
         <v>980</v>
@@ -6545,7 +6596,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="G4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" s="7">
         <f t="shared" ref="H4:K24" si="0">IF(B4 = "","",(B4/$D$1))</f>
@@ -6564,7 +6615,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -6594,7 +6645,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -6624,7 +6675,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -6654,7 +6705,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -6684,7 +6735,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -6716,7 +6767,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -6748,7 +6799,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -6780,7 +6831,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -6810,7 +6861,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -6840,7 +6891,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -6870,7 +6921,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
@@ -6900,7 +6951,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
@@ -6930,7 +6981,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
@@ -6962,7 +7013,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
@@ -6992,7 +7043,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
@@ -7022,9 +7073,9 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B20" s="2">
         <v>739</v>
@@ -7033,28 +7084,28 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="G20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="0"/>
+        <v>1.9194805194805196</v>
+      </c>
+      <c r="I20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <f t="shared" si="0"/>
-        <v>1.9194805194805196</v>
-      </c>
-      <c r="I20" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J20" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K20" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="B21" s="2">
         <v>893</v>
@@ -7063,28 +7114,28 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="G21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" si="0"/>
+        <v>2.3194805194805195</v>
+      </c>
+      <c r="I21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="H21" s="7">
-        <f t="shared" si="0"/>
-        <v>2.3194805194805195</v>
-      </c>
-      <c r="I21" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J21" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K21" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="B22" s="2">
         <v>487</v>
@@ -7093,28 +7144,28 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="G22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="0"/>
+        <v>1.264935064935065</v>
+      </c>
+      <c r="I22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="H22" s="7">
-        <f t="shared" si="0"/>
-        <v>1.264935064935065</v>
-      </c>
-      <c r="I22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="B23" s="2">
         <v>582</v>
@@ -7123,28 +7174,28 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="G23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" si="0"/>
+        <v>1.5116883116883117</v>
+      </c>
+      <c r="I23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="H23" s="7">
-        <f t="shared" si="0"/>
-        <v>1.5116883116883117</v>
-      </c>
-      <c r="I23" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J23" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K23" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="B24" s="2">
         <v>913</v>
@@ -7153,7 +7204,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="G24" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="0"/>
@@ -7183,17 +7234,17 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
-    <col min="2" max="3" width="9.109375" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -7201,20 +7252,20 @@
         <v>385</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2">
         <v>700</v>
@@ -7223,7 +7274,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="G4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" s="7">
         <f t="shared" ref="H4:K24" si="0">IF(B4 = "","",(B4/$D$1))</f>
@@ -7242,7 +7293,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -7272,7 +7323,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -7302,7 +7353,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -7332,7 +7383,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -7362,7 +7413,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -7392,7 +7443,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -7422,7 +7473,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -7454,7 +7505,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -7484,7 +7535,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -7514,7 +7565,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -7544,7 +7595,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
@@ -7574,7 +7625,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
@@ -7604,7 +7655,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
@@ -7634,7 +7685,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
@@ -7664,7 +7715,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
@@ -7694,9 +7745,9 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B20" s="2">
         <v>325</v>
@@ -7705,28 +7756,28 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="G20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="0"/>
+        <v>0.8441558441558441</v>
+      </c>
+      <c r="I20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <f t="shared" si="0"/>
-        <v>0.8441558441558441</v>
-      </c>
-      <c r="I20" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J20" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K20" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="B21" s="2">
         <v>303</v>
@@ -7735,28 +7786,28 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="G21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" si="0"/>
+        <v>0.78701298701298705</v>
+      </c>
+      <c r="I21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="H21" s="7">
-        <f t="shared" si="0"/>
-        <v>0.78701298701298705</v>
-      </c>
-      <c r="I21" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J21" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K21" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="B22" s="2">
         <v>247</v>
@@ -7765,28 +7816,28 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="G22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="0"/>
+        <v>0.64155844155844155</v>
+      </c>
+      <c r="I22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="H22" s="7">
-        <f t="shared" si="0"/>
-        <v>0.64155844155844155</v>
-      </c>
-      <c r="I22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="B23" s="2">
         <v>361</v>
@@ -7795,28 +7846,28 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="G23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" si="0"/>
+        <v>0.93766233766233764</v>
+      </c>
+      <c r="I23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="H23" s="7">
-        <f t="shared" si="0"/>
-        <v>0.93766233766233764</v>
-      </c>
-      <c r="I23" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J23" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K23" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="B24" s="2">
         <v>1020</v>
@@ -7825,7 +7876,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="G24" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="0"/>
@@ -7855,17 +7906,17 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
-    <col min="2" max="3" width="9.109375" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -7873,35 +7924,39 @@
         <v>385</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1023</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1053</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="G4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="7" t="str">
+        <v>23</v>
+      </c>
+      <c r="H4" s="7">
         <f t="shared" ref="H4:K24" si="0">IF(B4 = "","",(B4/$D$1))</f>
-        <v/>
-      </c>
-      <c r="I4" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>2.657142857142857</v>
+      </c>
+      <c r="I4" s="7">
+        <f t="shared" si="0"/>
+        <v>2.7350649350649352</v>
       </c>
       <c r="J4" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7912,20 +7967,22 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>495</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="G5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H5" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2857142857142858</v>
       </c>
       <c r="I5" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7940,20 +7997,22 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2">
+        <v>1021</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="G6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
+        <v>2.6519480519480521</v>
       </c>
       <c r="I6" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7968,24 +8027,28 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="2">
+        <v>1562</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1430</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="G7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
+        <v>4.0571428571428569</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="0"/>
+        <v>3.7142857142857144</v>
       </c>
       <c r="J7" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7996,20 +8059,22 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>879</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
+        <v>2.2831168831168833</v>
       </c>
       <c r="I8" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8024,20 +8089,22 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2">
+        <v>684</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="G9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H9" s="7">
+        <f t="shared" si="0"/>
+        <v>1.7766233766233765</v>
       </c>
       <c r="I9" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8052,20 +8119,22 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2">
+        <v>1176</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="G10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H10" s="7">
+        <f t="shared" si="0"/>
+        <v>3.0545454545454547</v>
       </c>
       <c r="I10" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8080,7 +8149,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -8110,7 +8179,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -8140,7 +8209,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -8170,7 +8239,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -8200,7 +8269,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
@@ -8230,20 +8299,22 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2">
+        <v>596</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="G16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H16" s="7">
+        <f t="shared" si="0"/>
+        <v>1.5480519480519481</v>
       </c>
       <c r="I16" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8258,7 +8329,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
@@ -8288,20 +8359,22 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="2">
+        <v>714</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H18" s="7">
+        <f t="shared" si="0"/>
+        <v>1.8545454545454545</v>
       </c>
       <c r="I18" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8316,20 +8389,22 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="2">
+        <v>660</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="G19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H19" s="7">
+        <f t="shared" si="0"/>
+        <v>1.7142857142857142</v>
       </c>
       <c r="I19" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8344,9 +8419,9 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B20" s="2">
         <v>1070</v>
@@ -8355,28 +8430,28 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="G20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="0"/>
+        <v>2.779220779220779</v>
+      </c>
+      <c r="I20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <f t="shared" si="0"/>
-        <v>2.779220779220779</v>
-      </c>
-      <c r="I20" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J20" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K20" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="B21" s="2">
         <v>1042</v>
@@ -8385,28 +8460,28 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="G21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" si="0"/>
+        <v>2.7064935064935063</v>
+      </c>
+      <c r="I21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="H21" s="7">
-        <f t="shared" si="0"/>
-        <v>2.7064935064935063</v>
-      </c>
-      <c r="I21" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J21" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K21" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="B22" s="2">
         <v>859</v>
@@ -8415,28 +8490,28 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="G22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="0"/>
+        <v>2.2311688311688314</v>
+      </c>
+      <c r="I22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="H22" s="7">
-        <f t="shared" si="0"/>
-        <v>2.2311688311688314</v>
-      </c>
-      <c r="I22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="B23" s="2">
         <v>718</v>
@@ -8445,28 +8520,28 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="G23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" si="0"/>
+        <v>1.8649350649350649</v>
+      </c>
+      <c r="I23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="H23" s="7">
-        <f t="shared" si="0"/>
-        <v>1.8649350649350649</v>
-      </c>
-      <c r="I23" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J23" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K23" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="B24" s="2">
         <v>379</v>
@@ -8475,7 +8550,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="G24" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="0"/>
@@ -8505,17 +8580,17 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
-    <col min="2" max="3" width="9.109375" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -8523,35 +8598,39 @@
         <v>385</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B4" s="2">
+        <v>914</v>
+      </c>
+      <c r="C4" s="2">
+        <v>924</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="G4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="7" t="str">
+        <v>23</v>
+      </c>
+      <c r="H4" s="7">
         <f t="shared" ref="H4:K24" si="0">IF(B4 = "","",(B4/$D$1))</f>
-        <v/>
-      </c>
-      <c r="I4" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>2.3740259740259742</v>
+      </c>
+      <c r="I4" s="7">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
       </c>
       <c r="J4" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8562,20 +8641,22 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>603</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="G5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H5" s="7">
+        <f t="shared" si="0"/>
+        <v>1.5662337662337662</v>
       </c>
       <c r="I5" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8590,20 +8671,22 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2">
+        <v>1019</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="G6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
+        <v>2.6467532467532466</v>
       </c>
       <c r="I6" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8618,24 +8701,28 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="B7" s="2">
+        <v>1260</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1427</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="G7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
+        <v>3.2727272727272729</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="0"/>
+        <v>3.7064935064935063</v>
       </c>
       <c r="J7" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8646,20 +8733,22 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>995</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
+        <v>2.5844155844155843</v>
       </c>
       <c r="I8" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8674,20 +8763,22 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2">
+        <v>841</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="G9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H9" s="7">
+        <f t="shared" si="0"/>
+        <v>2.1844155844155844</v>
       </c>
       <c r="I9" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8702,20 +8793,22 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2">
+        <v>1280</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="G10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H10" s="7">
+        <f t="shared" si="0"/>
+        <v>3.3246753246753249</v>
       </c>
       <c r="I10" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8730,7 +8823,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -8760,7 +8853,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -8790,7 +8883,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -8820,7 +8913,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -8850,20 +8943,22 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2">
+        <v>273</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="G15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.70909090909090911</v>
       </c>
       <c r="I15" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8878,20 +8973,22 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2">
+        <v>711</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="G16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H16" s="7">
+        <f t="shared" si="0"/>
+        <v>1.8467532467532468</v>
       </c>
       <c r="I16" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8906,7 +9003,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
@@ -8936,20 +9033,22 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="2">
+        <v>549</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H18" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4259740259740259</v>
       </c>
       <c r="I18" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8964,20 +9063,22 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="2">
+        <v>927</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="G19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H19" s="7">
+        <f t="shared" si="0"/>
+        <v>2.4077922077922076</v>
       </c>
       <c r="I19" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8992,9 +9093,9 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B20" s="2">
         <v>1179</v>
@@ -9003,28 +9104,28 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="G20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="0"/>
+        <v>3.0623376623376624</v>
+      </c>
+      <c r="I20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <f t="shared" si="0"/>
-        <v>3.0623376623376624</v>
-      </c>
-      <c r="I20" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J20" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K20" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="B21" s="2">
         <v>1330</v>
@@ -9033,28 +9134,28 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="G21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" si="0"/>
+        <v>3.4545454545454546</v>
+      </c>
+      <c r="I21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="H21" s="7">
-        <f t="shared" si="0"/>
-        <v>3.4545454545454546</v>
-      </c>
-      <c r="I21" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J21" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K21" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="B22" s="2">
         <v>1100</v>
@@ -9063,28 +9164,28 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="G22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="0"/>
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="I22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="H22" s="7">
-        <f t="shared" si="0"/>
-        <v>2.8571428571428572</v>
-      </c>
-      <c r="I22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="J22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="B23" s="2">
         <v>989</v>
@@ -9093,7 +9194,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="G23" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H23" s="7">
         <f>IF(B23 = "","",(B23/$D$1))</f>
@@ -9112,9 +9213,9 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
         <v>270</v>
@@ -9123,7 +9224,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="G24" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="0"/>

--- a/Documents/Distances.xlsx
+++ b/Documents/Distances.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Hutson\source\repos\CS473FinalProject\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew R Hutson\Source\Repos\CS473FinalProject\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" tabRatio="752" firstSheet="4" activeTab="10" xr2:uid="{D91A8DBA-E9BB-45E3-84D0-FA2F40E38D3D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" tabRatio="752" firstSheet="5" activeTab="13" xr2:uid="{D91A8DBA-E9BB-45E3-84D0-FA2F40E38D3D}"/>
   </bookViews>
   <sheets>
     <sheet name="From Johnston" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,17 @@
     <sheet name="From Cowles Auditorium" sheetId="14" r:id="rId9"/>
     <sheet name="From Music Building" sheetId="15" r:id="rId10"/>
     <sheet name="From Westminster" sheetId="16" r:id="rId11"/>
-    <sheet name="From Stewart" sheetId="5" r:id="rId12"/>
-    <sheet name="From Arend" sheetId="6" r:id="rId13"/>
-    <sheet name="From BJ" sheetId="10" r:id="rId14"/>
+    <sheet name="From Art Building" sheetId="17" r:id="rId12"/>
+    <sheet name="From Hawthorne" sheetId="18" r:id="rId13"/>
+    <sheet name="From Stewart" sheetId="5" r:id="rId14"/>
+    <sheet name="From Arend" sheetId="6" r:id="rId15"/>
+    <sheet name="From BJ" sheetId="10" r:id="rId16"/>
+    <sheet name="From Oliver" sheetId="19" r:id="rId17"/>
+    <sheet name="From Duvall" sheetId="20" r:id="rId18"/>
+    <sheet name="From Boppell" sheetId="21" r:id="rId19"/>
+    <sheet name="From Warren" sheetId="22" r:id="rId20"/>
+    <sheet name="From Mac" sheetId="23" r:id="rId21"/>
+    <sheet name="From Ballard" sheetId="24" r:id="rId22"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -37,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="67">
   <si>
     <t>Library</t>
   </si>
@@ -190,6 +198,54 @@
   </si>
   <si>
     <t>Art Building</t>
+  </si>
+  <si>
+    <t>Distances (feet) from the Art Building to…</t>
+  </si>
+  <si>
+    <t>Times (minutes) from the Art Building to…</t>
+  </si>
+  <si>
+    <t>Distances (feet) from Hawthorne to…</t>
+  </si>
+  <si>
+    <t>Times (minutes) from Hawthorne to…</t>
+  </si>
+  <si>
+    <t>Distances (feet) from Oliver to…</t>
+  </si>
+  <si>
+    <t>Times (minutes) from Oliver to…</t>
+  </si>
+  <si>
+    <t>Distances (feet) from Duvall to…</t>
+  </si>
+  <si>
+    <t>Times (minutes) from Duvall to…</t>
+  </si>
+  <si>
+    <t>Distances (feet) from Boppell to…</t>
+  </si>
+  <si>
+    <t>Times (minutes) from Boppell to…</t>
+  </si>
+  <si>
+    <t>Distances (feet) from Warren to…</t>
+  </si>
+  <si>
+    <t>Times (minutes) from Warren to…</t>
+  </si>
+  <si>
+    <t>Distances (feet) from Mac to…</t>
+  </si>
+  <si>
+    <t>Times (minutes) from Mac to…</t>
+  </si>
+  <si>
+    <t>Distances (feet) from Ballard to…</t>
+  </si>
+  <si>
+    <t>Times (minutes) from Ballard to…</t>
   </si>
 </sst>
 </file>
@@ -1871,7 +1927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD786D4E-473E-4B57-9F10-60F1F23A6A8E}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -2540,10 +2596,1266 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8BA74EE-1A88-4FB2-9E1C-CAA137A8B3F2}">
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="6">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="7" t="str">
+        <f t="shared" ref="H4:K24" si="0">IF(B4 = "","",(B4/$D$1))</f>
+        <v/>
+      </c>
+      <c r="I4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="G5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="G12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="G13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="7" t="str">
+        <f>IF(B13 = "","",(B13/$D$1))</f>
+        <v/>
+      </c>
+      <c r="I13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="G14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="G15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="G16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="G17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="G19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="7" t="str">
+        <f>IF(B23 = "","",(B23/$D$1))</f>
+        <v/>
+      </c>
+      <c r="I23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="G24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58AF2EE6-0A2B-46C7-BCE0-67D27BE63FBF}">
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="6">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="7" t="str">
+        <f t="shared" ref="H4:K24" si="0">IF(B4 = "","",(B4/$D$1))</f>
+        <v/>
+      </c>
+      <c r="I4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="G5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="G12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="G13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="7" t="str">
+        <f>IF(B13 = "","",(B13/$D$1))</f>
+        <v/>
+      </c>
+      <c r="I13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="G14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="G15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="G16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="G17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="G19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="7" t="str">
+        <f>IF(B23 = "","",(B23/$D$1))</f>
+        <v/>
+      </c>
+      <c r="I23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="G24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0B5204-3871-4413-8844-74B7D13B39BB}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -2975,7 +4287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DFD9826-6ADD-46A3-8E78-69E730E7C1FC}">
   <dimension ref="A1:K16"/>
   <sheetViews>
@@ -3407,7 +4719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA724508-FA86-48BB-A3F1-1FC4FEEF6A16}">
   <dimension ref="A1:K16"/>
   <sheetViews>
@@ -3819,6 +5131,1218 @@
       <c r="H16" s="7">
         <f t="shared" si="0"/>
         <v>3.7922077922077921</v>
+      </c>
+      <c r="I16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF46EAF2-80ED-483D-93CF-5A1ACC7CB4A5}">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="6">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="7" t="str">
+        <f t="shared" ref="H4:K16" si="0">IF(B4 = "","",(B4/$D$1))</f>
+        <v/>
+      </c>
+      <c r="I4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="G5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="G12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="G13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="G14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="G15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="G16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0E5221-E3BC-4A72-8BFB-3A6C8004704B}">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="6">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="7" t="str">
+        <f t="shared" ref="H4:K16" si="0">IF(B4 = "","",(B4/$D$1))</f>
+        <v/>
+      </c>
+      <c r="I4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="G5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="G12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="G13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="G14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="G15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="G16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3EA40F-6FBD-49F9-BA82-EFE2938E67A3}">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="6">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="7" t="str">
+        <f t="shared" ref="H4:K16" si="0">IF(B4 = "","",(B4/$D$1))</f>
+        <v/>
+      </c>
+      <c r="I4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="G5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="G12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="G13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="G14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="G15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="G16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="I16" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4515,6 +7039,1218 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B62E66-7A60-4AD8-B520-DC2D2C6D0E89}">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="6">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="7" t="str">
+        <f t="shared" ref="H4:K16" si="0">IF(B4 = "","",(B4/$D$1))</f>
+        <v/>
+      </c>
+      <c r="I4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="G5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="G12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="G13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="G14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="G15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="G16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E29D9B0F-D051-4875-BB0F-3173F285A2B7}">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="6">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="7" t="str">
+        <f t="shared" ref="H4:K16" si="0">IF(B4 = "","",(B4/$D$1))</f>
+        <v/>
+      </c>
+      <c r="I4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="G5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="G12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="G13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="G14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="G15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="G16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D20933CD-FD85-4836-9024-7FF42242AD8E}">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="6">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="7" t="str">
+        <f t="shared" ref="H4:K16" si="0">IF(B4 = "","",(B4/$D$1))</f>
+        <v/>
+      </c>
+      <c r="I4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="G5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="G12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="G13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="G14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="G15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="G16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42DFD716-EFB0-4289-B6D0-CCC044E8C380}">
   <dimension ref="A1:K24"/>

--- a/Documents/Distances.xlsx
+++ b/Documents/Distances.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" tabRatio="752" firstSheet="5" activeTab="13" xr2:uid="{D91A8DBA-E9BB-45E3-84D0-FA2F40E38D3D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" tabRatio="752" firstSheet="11" activeTab="21" xr2:uid="{D91A8DBA-E9BB-45E3-84D0-FA2F40E38D3D}"/>
   </bookViews>
   <sheets>
     <sheet name="From Johnston" sheetId="1" r:id="rId1"/>
     <sheet name="From Robinson" sheetId="2" r:id="rId2"/>
     <sheet name="From the Library" sheetId="3" r:id="rId3"/>
-    <sheet name="From Hendrcks" sheetId="4" r:id="rId4"/>
+    <sheet name="From Hendricks" sheetId="4" r:id="rId4"/>
     <sheet name="From the HUB" sheetId="7" r:id="rId5"/>
     <sheet name="From Lindaman" sheetId="11" r:id="rId6"/>
     <sheet name="From Weyerhaeuser" sheetId="12" r:id="rId7"/>
@@ -3855,7 +3855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0B5204-3871-4413-8844-74B7D13B39BB}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -5156,7 +5156,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5189,20 +5189,24 @@
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="2">
+        <v>826</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1099</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="G4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="7" t="str">
+      <c r="H4" s="7">
         <f t="shared" ref="H4:K16" si="0">IF(B4 = "","",(B4/$D$1))</f>
-        <v/>
-      </c>
-      <c r="I4" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>2.1454545454545455</v>
+      </c>
+      <c r="I4" s="7">
+        <f t="shared" si="0"/>
+        <v>2.8545454545454545</v>
       </c>
       <c r="J4" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5217,16 +5221,18 @@
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>1227</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="G5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H5" s="7">
+        <f t="shared" si="0"/>
+        <v>3.1870129870129871</v>
       </c>
       <c r="I5" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5245,20 +5251,24 @@
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="B6" s="2">
+        <v>640</v>
+      </c>
+      <c r="C6" s="2">
+        <v>732</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="G6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
+        <v>1.6623376623376624</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="0"/>
+        <v>1.9012987012987013</v>
       </c>
       <c r="J6" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5273,16 +5283,18 @@
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>909</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="G7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
+        <v>2.361038961038961</v>
       </c>
       <c r="I7" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5301,16 +5313,18 @@
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>840</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
+        <v>2.1818181818181817</v>
       </c>
       <c r="I8" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5357,16 +5371,18 @@
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2">
+        <v>1644</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="G10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H10" s="7">
+        <f t="shared" si="0"/>
+        <v>4.2701298701298702</v>
       </c>
       <c r="I10" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5385,16 +5401,18 @@
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2">
+        <v>1717</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="G11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H11" s="7">
+        <f t="shared" si="0"/>
+        <v>4.4597402597402596</v>
       </c>
       <c r="I11" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5413,20 +5431,24 @@
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="2">
+        <v>1674</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1556</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="G12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I12" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H12" s="7">
+        <f t="shared" si="0"/>
+        <v>4.3480519480519479</v>
+      </c>
+      <c r="I12" s="7">
+        <f t="shared" si="0"/>
+        <v>4.0415584415584416</v>
       </c>
       <c r="J12" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5441,20 +5463,24 @@
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="B13" s="2">
+        <v>1550</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1750</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="G13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I13" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H13" s="7">
+        <f t="shared" si="0"/>
+        <v>4.0259740259740262</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="0"/>
+        <v>4.5454545454545459</v>
       </c>
       <c r="J13" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5497,16 +5523,18 @@
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2">
+        <v>1624</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="G15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H15" s="7">
+        <f t="shared" si="0"/>
+        <v>4.2181818181818178</v>
       </c>
       <c r="I15" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5525,16 +5553,18 @@
       <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2">
+        <v>1916</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="G16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H16" s="7">
+        <f t="shared" si="0"/>
+        <v>4.9766233766233769</v>
       </c>
       <c r="I16" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5560,7 +5590,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5593,20 +5623,24 @@
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="2">
+        <v>1253</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1086</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="G4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="7" t="str">
+      <c r="H4" s="7">
         <f t="shared" ref="H4:K16" si="0">IF(B4 = "","",(B4/$D$1))</f>
-        <v/>
-      </c>
-      <c r="I4" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>3.2545454545454544</v>
+      </c>
+      <c r="I4" s="7">
+        <f t="shared" si="0"/>
+        <v>2.8207792207792206</v>
       </c>
       <c r="J4" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5621,16 +5655,18 @@
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>1157</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="G5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H5" s="7">
+        <f t="shared" si="0"/>
+        <v>3.005194805194805</v>
       </c>
       <c r="I5" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5649,16 +5685,18 @@
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2">
+        <v>783</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="G6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
+        <v>2.0337662337662339</v>
       </c>
       <c r="I6" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5677,16 +5715,18 @@
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>1080</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="G7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
+        <v>2.8051948051948052</v>
       </c>
       <c r="I7" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5705,16 +5745,18 @@
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>788</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
+        <v>2.0467532467532465</v>
       </c>
       <c r="I8" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5761,16 +5803,18 @@
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2">
+        <v>1565</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="G10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H10" s="7">
+        <f t="shared" si="0"/>
+        <v>4.0649350649350646</v>
       </c>
       <c r="I10" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5789,16 +5833,18 @@
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2">
+        <v>1623</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="G11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H11" s="7">
+        <f t="shared" si="0"/>
+        <v>4.2155844155844155</v>
       </c>
       <c r="I11" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5817,16 +5863,18 @@
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2">
+        <v>1498</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="G12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H12" s="7">
+        <f t="shared" si="0"/>
+        <v>3.8909090909090911</v>
       </c>
       <c r="I12" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5845,16 +5893,18 @@
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2">
+        <v>1680</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="G13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H13" s="7">
+        <f t="shared" si="0"/>
+        <v>4.3636363636363633</v>
       </c>
       <c r="I13" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5901,16 +5951,18 @@
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2">
+        <v>1823</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="G15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H15" s="7">
+        <f t="shared" si="0"/>
+        <v>4.7350649350649352</v>
       </c>
       <c r="I15" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5929,16 +5981,18 @@
       <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2">
+        <v>1890</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="G16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H16" s="7">
+        <f t="shared" si="0"/>
+        <v>4.9090909090909092</v>
       </c>
       <c r="I16" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5964,7 +6018,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5997,20 +6051,24 @@
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="2">
+        <v>916</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1023</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="G4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="7" t="str">
+      <c r="H4" s="7">
         <f t="shared" ref="H4:K16" si="0">IF(B4 = "","",(B4/$D$1))</f>
-        <v/>
-      </c>
-      <c r="I4" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>2.3792207792207791</v>
+      </c>
+      <c r="I4" s="7">
+        <f t="shared" si="0"/>
+        <v>2.657142857142857</v>
       </c>
       <c r="J4" s="7" t="str">
         <f t="shared" si="0"/>
@@ -6025,16 +6083,18 @@
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>946</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="G5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H5" s="7">
+        <f t="shared" si="0"/>
+        <v>2.4571428571428573</v>
       </c>
       <c r="I5" s="7" t="str">
         <f t="shared" si="0"/>
@@ -6053,16 +6113,18 @@
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2">
+        <v>545</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="G6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4155844155844155</v>
       </c>
       <c r="I6" s="7" t="str">
         <f t="shared" si="0"/>
@@ -6081,16 +6143,18 @@
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>1125</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="G7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
+        <v>2.9220779220779223</v>
       </c>
       <c r="I7" s="7" t="str">
         <f t="shared" si="0"/>
@@ -6109,16 +6173,18 @@
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>551</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4311688311688311</v>
       </c>
       <c r="I8" s="7" t="str">
         <f t="shared" si="0"/>
@@ -6165,16 +6231,18 @@
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2">
+        <v>1339</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="G10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H10" s="7">
+        <f t="shared" si="0"/>
+        <v>3.4779220779220781</v>
       </c>
       <c r="I10" s="7" t="str">
         <f t="shared" si="0"/>
@@ -6193,16 +6261,18 @@
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2">
+        <v>1484</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="G11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H11" s="7">
+        <f t="shared" si="0"/>
+        <v>3.8545454545454545</v>
       </c>
       <c r="I11" s="7" t="str">
         <f t="shared" si="0"/>
@@ -6221,16 +6291,18 @@
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2">
+        <v>1273</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="G12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H12" s="7">
+        <f t="shared" si="0"/>
+        <v>3.3064935064935064</v>
       </c>
       <c r="I12" s="7" t="str">
         <f t="shared" si="0"/>
@@ -6249,16 +6321,18 @@
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2">
+        <v>1441</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="G13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H13" s="7">
+        <f t="shared" si="0"/>
+        <v>3.7428571428571429</v>
       </c>
       <c r="I13" s="7" t="str">
         <f t="shared" si="0"/>
@@ -6305,16 +6379,18 @@
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2">
+        <v>1769</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="G15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H15" s="7">
+        <f t="shared" si="0"/>
+        <v>4.5948051948051951</v>
       </c>
       <c r="I15" s="7" t="str">
         <f t="shared" si="0"/>
@@ -6333,16 +6409,18 @@
       <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2">
+        <v>1606</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="G16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H16" s="7">
+        <f t="shared" si="0"/>
+        <v>4.1714285714285717</v>
       </c>
       <c r="I16" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7044,7 +7122,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7077,16 +7155,18 @@
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2">
+        <v>1142</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="G4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="7" t="str">
+      <c r="H4" s="7">
         <f t="shared" ref="H4:K16" si="0">IF(B4 = "","",(B4/$D$1))</f>
-        <v/>
+        <v>2.9662337662337661</v>
       </c>
       <c r="I4" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7105,16 +7185,18 @@
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>548</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="G5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H5" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4233766233766234</v>
       </c>
       <c r="I5" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7133,16 +7215,18 @@
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2">
+        <v>1015</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="G6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
+        <v>2.6363636363636362</v>
       </c>
       <c r="I6" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7161,16 +7245,18 @@
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>728</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="G7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.8909090909090909</v>
       </c>
       <c r="I7" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7189,16 +7275,18 @@
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>885</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
+        <v>2.2987012987012987</v>
       </c>
       <c r="I8" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7245,16 +7333,18 @@
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2">
+        <v>509</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="G10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H10" s="7">
+        <f t="shared" si="0"/>
+        <v>1.3220779220779222</v>
       </c>
       <c r="I10" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7273,16 +7363,18 @@
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2">
+        <v>310</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="G11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H11" s="7">
+        <f t="shared" si="0"/>
+        <v>0.80519480519480524</v>
       </c>
       <c r="I11" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7301,20 +7393,24 @@
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="B12" s="2">
+        <v>622</v>
+      </c>
+      <c r="C12" s="2">
+        <v>684</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="G12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I12" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H12" s="7">
+        <f t="shared" si="0"/>
+        <v>1.6155844155844157</v>
+      </c>
+      <c r="I12" s="7">
+        <f t="shared" si="0"/>
+        <v>1.7766233766233765</v>
       </c>
       <c r="J12" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7329,16 +7425,18 @@
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2">
+        <v>517</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="G13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H13" s="7">
+        <f t="shared" si="0"/>
+        <v>1.3428571428571427</v>
       </c>
       <c r="I13" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7385,16 +7483,18 @@
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2">
+        <v>976</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="G15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H15" s="7">
+        <f t="shared" si="0"/>
+        <v>2.535064935064935</v>
       </c>
       <c r="I15" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7413,16 +7513,18 @@
       <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2">
+        <v>593</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="G16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H16" s="7">
+        <f t="shared" si="0"/>
+        <v>1.5402597402597402</v>
       </c>
       <c r="I16" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7448,7 +7550,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7481,20 +7583,24 @@
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="2">
+        <v>916</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1024</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="G4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="7" t="str">
+      <c r="H4" s="7">
         <f t="shared" ref="H4:K16" si="0">IF(B4 = "","",(B4/$D$1))</f>
-        <v/>
-      </c>
-      <c r="I4" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>2.3792207792207791</v>
+      </c>
+      <c r="I4" s="7">
+        <f t="shared" si="0"/>
+        <v>2.6597402597402597</v>
       </c>
       <c r="J4" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7509,16 +7615,18 @@
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>788</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="G5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H5" s="7">
+        <f t="shared" si="0"/>
+        <v>2.0467532467532465</v>
       </c>
       <c r="I5" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7537,16 +7645,18 @@
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2">
+        <v>939</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="G6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
+        <v>2.4389610389610388</v>
       </c>
       <c r="I6" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7565,16 +7675,18 @@
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>590</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="G7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.5324675324675325</v>
       </c>
       <c r="I7" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7593,16 +7705,18 @@
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>1132</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
+        <v>2.9402597402597404</v>
       </c>
       <c r="I8" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7649,16 +7763,18 @@
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2">
+        <v>1100</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="G10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H10" s="7">
+        <f t="shared" si="0"/>
+        <v>2.8571428571428572</v>
       </c>
       <c r="I10" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7677,16 +7793,18 @@
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2">
+        <v>859</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="G11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H11" s="7">
+        <f t="shared" si="0"/>
+        <v>2.2311688311688314</v>
       </c>
       <c r="I11" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7705,16 +7823,18 @@
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2">
+        <v>487</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="G12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H12" s="7">
+        <f t="shared" si="0"/>
+        <v>1.264935064935065</v>
       </c>
       <c r="I12" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7733,16 +7853,18 @@
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2">
+        <v>247</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="G13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H13" s="7">
+        <f t="shared" si="0"/>
+        <v>0.64155844155844155</v>
       </c>
       <c r="I13" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7789,16 +7911,18 @@
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2">
+        <v>591</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="G15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H15" s="7">
+        <f t="shared" si="0"/>
+        <v>1.535064935064935</v>
       </c>
       <c r="I15" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7817,16 +7941,18 @@
       <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2">
+        <v>886</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="G16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H16" s="7">
+        <f t="shared" si="0"/>
+        <v>2.3012987012987014</v>
       </c>
       <c r="I16" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7851,8 +7977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D20933CD-FD85-4836-9024-7FF42242AD8E}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7885,20 +8011,24 @@
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="2">
+        <v>1114</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1016</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="G4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="7" t="str">
+      <c r="H4" s="7">
         <f t="shared" ref="H4:K16" si="0">IF(B4 = "","",(B4/$D$1))</f>
-        <v/>
-      </c>
-      <c r="I4" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>2.8935064935064934</v>
+      </c>
+      <c r="I4" s="7">
+        <f t="shared" si="0"/>
+        <v>2.638961038961039</v>
       </c>
       <c r="J4" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7913,16 +8043,18 @@
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>914</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="G5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H5" s="7">
+        <f t="shared" si="0"/>
+        <v>2.3740259740259742</v>
       </c>
       <c r="I5" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7941,16 +8073,18 @@
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2">
+        <v>1057</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="G6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
+        <v>2.7454545454545456</v>
       </c>
       <c r="I6" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7969,16 +8103,18 @@
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>743</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="G7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.92987012987013</v>
       </c>
       <c r="I7" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7997,16 +8133,18 @@
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>1327</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
+        <v>3.4467532467532469</v>
       </c>
       <c r="I8" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8053,16 +8191,18 @@
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2">
+        <v>989</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="G10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H10" s="7">
+        <f t="shared" si="0"/>
+        <v>2.5688311688311689</v>
       </c>
       <c r="I10" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8081,16 +8221,18 @@
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2">
+        <v>718</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="G11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H11" s="7">
+        <f t="shared" si="0"/>
+        <v>1.8649350649350649</v>
       </c>
       <c r="I11" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8109,16 +8251,18 @@
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2">
+        <v>582</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="G12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H12" s="7">
+        <f t="shared" si="0"/>
+        <v>1.5116883116883117</v>
       </c>
       <c r="I12" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8137,16 +8281,18 @@
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2">
+        <v>361</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="G13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H13" s="7">
+        <f t="shared" si="0"/>
+        <v>0.93766233766233764</v>
       </c>
       <c r="I13" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8193,16 +8339,18 @@
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2">
+        <v>702</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="G15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H15" s="7">
+        <f t="shared" si="0"/>
+        <v>1.8233766233766233</v>
       </c>
       <c r="I15" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8221,16 +8369,18 @@
       <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2">
+        <v>796</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="G16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H16" s="7">
+        <f t="shared" si="0"/>
+        <v>2.0675324675324673</v>
       </c>
       <c r="I16" s="7" t="str">
         <f t="shared" si="0"/>

--- a/Documents/Distances.xlsx
+++ b/Documents/Distances.xlsx
@@ -2600,7 +2600,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2633,16 +2633,18 @@
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2">
+        <v>756</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="G4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="7" t="str">
+      <c r="H4" s="7">
         <f t="shared" ref="H4:K24" si="0">IF(B4 = "","",(B4/$D$1))</f>
-        <v/>
+        <v>1.9636363636363636</v>
       </c>
       <c r="I4" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2661,16 +2663,18 @@
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>868</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="G5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H5" s="7">
+        <f t="shared" si="0"/>
+        <v>2.2545454545454544</v>
       </c>
       <c r="I5" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2689,16 +2693,18 @@
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2">
+        <v>1041</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="G6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
+        <v>2.703896103896104</v>
       </c>
       <c r="I6" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2717,16 +2723,18 @@
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>954</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="G7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
+        <v>2.4779220779220781</v>
       </c>
       <c r="I7" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2745,16 +2753,18 @@
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>1172</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
+        <v>3.0441558441558443</v>
       </c>
       <c r="I8" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2773,16 +2783,18 @@
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2">
+        <v>493</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="G9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H9" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2805194805194806</v>
       </c>
       <c r="I9" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2801,16 +2813,18 @@
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2">
+        <v>951</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="G10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H10" s="7">
+        <f t="shared" si="0"/>
+        <v>2.47012987012987</v>
       </c>
       <c r="I10" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2829,16 +2843,18 @@
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2">
+        <v>1391</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="G11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H11" s="7">
+        <f t="shared" si="0"/>
+        <v>3.6129870129870132</v>
       </c>
       <c r="I11" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2857,16 +2873,18 @@
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2">
+        <v>1636</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="G12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H12" s="7">
+        <f t="shared" si="0"/>
+        <v>4.2493506493506494</v>
       </c>
       <c r="I12" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2885,16 +2903,18 @@
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2">
+        <v>1470</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="G13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="7" t="str">
+      <c r="H13" s="7">
         <f>IF(B13 = "","",(B13/$D$1))</f>
-        <v/>
+        <v>3.8181818181818183</v>
       </c>
       <c r="I13" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2913,20 +2933,24 @@
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="B14" s="2">
+        <v>2060</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2228</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="G14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I14" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H14" s="7">
+        <f t="shared" si="0"/>
+        <v>5.3506493506493502</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="0"/>
+        <v>5.7870129870129867</v>
       </c>
       <c r="J14" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2941,16 +2965,18 @@
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2">
+        <v>1070</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="G15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H15" s="7">
+        <f t="shared" si="0"/>
+        <v>2.779220779220779</v>
       </c>
       <c r="I15" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2969,16 +2995,18 @@
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2">
+        <v>739</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="G16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H16" s="7">
+        <f t="shared" si="0"/>
+        <v>1.9194805194805196</v>
       </c>
       <c r="I16" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2997,16 +3025,18 @@
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="2">
+        <v>960</v>
+      </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="G17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H17" s="7">
+        <f t="shared" si="0"/>
+        <v>2.4935064935064934</v>
       </c>
       <c r="I17" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3025,20 +3055,24 @@
       <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="B18" s="2">
+        <v>1127</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1170</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I18" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H18" s="7">
+        <f t="shared" si="0"/>
+        <v>2.9272727272727272</v>
+      </c>
+      <c r="I18" s="7">
+        <f t="shared" si="0"/>
+        <v>3.0389610389610389</v>
       </c>
       <c r="J18" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3053,16 +3087,18 @@
       <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="2">
+        <v>325</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="G19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H19" s="7">
+        <f t="shared" si="0"/>
+        <v>0.8441558441558441</v>
       </c>
       <c r="I19" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3081,16 +3117,18 @@
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="2">
+        <v>297</v>
+      </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="G20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H20" s="7">
+        <f t="shared" si="0"/>
+        <v>0.77142857142857146</v>
       </c>
       <c r="I20" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3109,16 +3147,18 @@
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="2">
+        <v>1429</v>
+      </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="G21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H21" s="7">
+        <f t="shared" si="0"/>
+        <v>3.7116883116883117</v>
       </c>
       <c r="I21" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3137,16 +3177,18 @@
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="2">
+        <v>532</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="G22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H22" s="7">
+        <f t="shared" si="0"/>
+        <v>1.3818181818181818</v>
       </c>
       <c r="I22" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3165,16 +3207,18 @@
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="2">
+        <v>665</v>
+      </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="G23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="7" t="str">
+      <c r="H23" s="7">
         <f>IF(B23 = "","",(B23/$D$1))</f>
-        <v/>
+        <v>1.7272727272727273</v>
       </c>
       <c r="I23" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3193,16 +3237,18 @@
       <c r="A24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="2">
+        <v>1179</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="G24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H24" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H24" s="7">
+        <f t="shared" si="0"/>
+        <v>3.0623376623376624</v>
       </c>
       <c r="I24" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3228,7 +3274,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3261,16 +3307,18 @@
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2">
+        <v>1438</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="G4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="7" t="str">
+      <c r="H4" s="7">
         <f t="shared" ref="H4:K24" si="0">IF(B4 = "","",(B4/$D$1))</f>
-        <v/>
+        <v>3.7350649350649352</v>
       </c>
       <c r="I4" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3289,16 +3337,18 @@
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>1418</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="G5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H5" s="7">
+        <f t="shared" si="0"/>
+        <v>3.6831168831168832</v>
       </c>
       <c r="I5" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3317,16 +3367,18 @@
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2">
+        <v>1133</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="G6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
+        <v>2.9428571428571431</v>
       </c>
       <c r="I6" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3345,16 +3397,18 @@
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>1098</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="G7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
+        <v>2.8519480519480518</v>
       </c>
       <c r="I7" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3373,16 +3427,18 @@
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>1055</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
+        <v>2.7402597402597402</v>
       </c>
       <c r="I8" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3401,16 +3457,18 @@
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2">
+        <v>1617</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="G9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H9" s="7">
+        <f t="shared" si="0"/>
+        <v>4.2</v>
       </c>
       <c r="I9" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3429,16 +3487,18 @@
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2">
+        <v>1378</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="G10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H10" s="7">
+        <f t="shared" si="0"/>
+        <v>3.5792207792207793</v>
       </c>
       <c r="I10" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3457,16 +3517,18 @@
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2">
+        <v>1299</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="G11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H11" s="7">
+        <f t="shared" si="0"/>
+        <v>3.3740259740259742</v>
       </c>
       <c r="I11" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3485,16 +3547,18 @@
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2">
+        <v>1095</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="G12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H12" s="7">
+        <f t="shared" si="0"/>
+        <v>2.8441558441558441</v>
       </c>
       <c r="I12" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3513,16 +3577,18 @@
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2">
+        <v>828</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="G13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="7" t="str">
+      <c r="H13" s="7">
         <f>IF(B13 = "","",(B13/$D$1))</f>
-        <v/>
+        <v>2.1506493506493505</v>
       </c>
       <c r="I13" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3541,20 +3607,24 @@
       <c r="A14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="B14" s="2">
+        <v>2060</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2228</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="G14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I14" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H14" s="7">
+        <f t="shared" si="0"/>
+        <v>5.3506493506493502</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="0"/>
+        <v>5.7870129870129867</v>
       </c>
       <c r="J14" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3569,16 +3639,18 @@
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2">
+        <v>1589</v>
+      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="G15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H15" s="7">
+        <f t="shared" si="0"/>
+        <v>4.127272727272727</v>
       </c>
       <c r="I15" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3597,16 +3669,18 @@
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2">
+        <v>1793</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="G16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H16" s="7">
+        <f t="shared" si="0"/>
+        <v>4.6571428571428575</v>
       </c>
       <c r="I16" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3625,16 +3699,18 @@
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="2">
+        <v>1900</v>
+      </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="G17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H17" s="7">
+        <f t="shared" si="0"/>
+        <v>4.9350649350649354</v>
       </c>
       <c r="I17" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3653,16 +3729,18 @@
       <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B18" s="2">
+        <v>1000</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H18" s="7">
+        <f t="shared" si="0"/>
+        <v>2.5974025974025974</v>
       </c>
       <c r="I18" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3681,16 +3759,18 @@
       <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="2">
+        <v>1900</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="G19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H19" s="7">
+        <f t="shared" si="0"/>
+        <v>4.9350649350649354</v>
       </c>
       <c r="I19" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3709,16 +3789,18 @@
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="2">
+        <v>2212</v>
+      </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="G20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H20" s="7">
+        <f t="shared" si="0"/>
+        <v>5.7454545454545451</v>
       </c>
       <c r="I20" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3737,16 +3819,18 @@
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="2">
+        <v>1718</v>
+      </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="G21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H21" s="7">
+        <f t="shared" si="0"/>
+        <v>4.4623376623376627</v>
       </c>
       <c r="I21" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3765,16 +3849,18 @@
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" s="2">
+        <v>2190</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="G22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H22" s="7">
+        <f t="shared" si="0"/>
+        <v>5.6883116883116882</v>
       </c>
       <c r="I22" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3793,16 +3879,18 @@
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="2"/>
+      <c r="B23" s="2">
+        <v>2298</v>
+      </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="G23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="7" t="str">
+      <c r="H23" s="7">
         <f>IF(B23 = "","",(B23/$D$1))</f>
-        <v/>
+        <v>5.9688311688311693</v>
       </c>
       <c r="I23" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3821,16 +3909,18 @@
       <c r="A24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="2"/>
+      <c r="B24" s="2">
+        <v>1475</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="G24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H24" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H24" s="7">
+        <f t="shared" si="0"/>
+        <v>3.831168831168831</v>
       </c>
       <c r="I24" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4292,7 +4382,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5156,7 +5246,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5343,16 +5433,18 @@
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2">
+        <v>1299</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="G9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H9" s="7">
+        <f t="shared" si="0"/>
+        <v>3.3740259740259742</v>
       </c>
       <c r="I9" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5495,16 +5587,18 @@
       <c r="A14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2">
+        <v>1391</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="G14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H14" s="7">
+        <f t="shared" si="0"/>
+        <v>3.6129870129870132</v>
       </c>
       <c r="I14" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5590,7 +5684,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5775,16 +5869,18 @@
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2">
+        <v>1095</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="G9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H9" s="7">
+        <f t="shared" si="0"/>
+        <v>2.8441558441558441</v>
       </c>
       <c r="I9" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5923,16 +6019,18 @@
       <c r="A14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2">
+        <v>1636</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="G14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H14" s="7">
+        <f t="shared" si="0"/>
+        <v>4.2493506493506494</v>
       </c>
       <c r="I14" s="7" t="str">
         <f t="shared" si="0"/>
@@ -6018,7 +6116,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6203,16 +6301,18 @@
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2">
+        <v>828</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="G9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H9" s="7">
+        <f t="shared" si="0"/>
+        <v>2.1506493506493505</v>
       </c>
       <c r="I9" s="7" t="str">
         <f t="shared" si="0"/>
@@ -6351,16 +6451,18 @@
       <c r="A14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2">
+        <v>1470</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="G14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H14" s="7">
+        <f t="shared" si="0"/>
+        <v>3.8181818181818183</v>
       </c>
       <c r="I14" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7122,7 +7224,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7305,16 +7407,18 @@
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2">
+        <v>1900</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="G9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H9" s="7">
+        <f t="shared" si="0"/>
+        <v>4.9350649350649354</v>
       </c>
       <c r="I9" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7455,16 +7559,18 @@
       <c r="A14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2">
+        <v>960</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="G14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H14" s="7">
+        <f t="shared" si="0"/>
+        <v>2.4935064935064934</v>
       </c>
       <c r="I14" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7550,7 +7656,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7735,16 +7841,18 @@
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2">
+        <v>2190</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="G9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H9" s="7">
+        <f t="shared" si="0"/>
+        <v>5.6883116883116882</v>
       </c>
       <c r="I9" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7883,16 +7991,18 @@
       <c r="A14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2">
+        <v>532</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="G14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H14" s="7">
+        <f t="shared" si="0"/>
+        <v>1.3818181818181818</v>
       </c>
       <c r="I14" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7978,7 +8088,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8163,16 +8273,18 @@
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2">
+        <v>2298</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="G9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H9" s="7">
+        <f t="shared" si="0"/>
+        <v>5.9688311688311693</v>
       </c>
       <c r="I9" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8311,16 +8423,18 @@
       <c r="A14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2">
+        <v>665</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="G14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="H14" s="7">
+        <f t="shared" si="0"/>
+        <v>1.7272727272727273</v>
       </c>
       <c r="I14" s="7" t="str">
         <f t="shared" si="0"/>

--- a/Documents/Distances.xlsx
+++ b/Documents/Distances.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" tabRatio="752" xr2:uid="{D91A8DBA-E9BB-45E3-84D0-FA2F40E38D3D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" tabRatio="752" firstSheet="11" activeTab="22" xr2:uid="{D91A8DBA-E9BB-45E3-84D0-FA2F40E38D3D}"/>
   </bookViews>
   <sheets>
     <sheet name="From Johnston" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,7 @@
     <sheet name="From Warren" sheetId="22" r:id="rId20"/>
     <sheet name="From Mac" sheetId="23" r:id="rId21"/>
     <sheet name="From Ballard" sheetId="24" r:id="rId22"/>
+    <sheet name="From Facilities" sheetId="25" r:id="rId23"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="69">
   <si>
     <t>Library</t>
   </si>
@@ -246,6 +247,12 @@
   </si>
   <si>
     <t>Times (minutes) from Ballard to…</t>
+  </si>
+  <si>
+    <t>Distances (feet) from Facilities to…</t>
+  </si>
+  <si>
+    <t>Times (minutes) from Facilities to…</t>
   </si>
 </sst>
 </file>
@@ -632,7 +639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{269D6B00-0816-41CA-8210-797105797DE4}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -8429,6 +8436,436 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D298196-5D99-408D-9814-D8109C163955}">
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="6">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2">
+        <v>576</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" ref="H4:K16" si="0">IF(B4 = "","",(B4/$D$1))</f>
+        <v>1.4961038961038962</v>
+      </c>
+      <c r="I4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>837</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="G5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="0"/>
+        <v>2.174025974025974</v>
+      </c>
+      <c r="I5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>777</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
+        <v>2.0181818181818181</v>
+      </c>
+      <c r="I6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2">
+        <v>462</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="I7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1156</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
+        <v>3.0025974025974027</v>
+      </c>
+      <c r="I8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1784</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="0"/>
+        <v>4.6337662337662335</v>
+      </c>
+      <c r="I9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1157</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="0"/>
+        <v>3.005194805194805</v>
+      </c>
+      <c r="I10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1038</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="0"/>
+        <v>2.6961038961038959</v>
+      </c>
+      <c r="I11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2">
+        <v>829</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="G12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="0"/>
+        <v>2.1532467532467532</v>
+      </c>
+      <c r="I12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2">
+        <v>750</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="G13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="0"/>
+        <v>1.948051948051948</v>
+      </c>
+      <c r="I13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2">
+        <v>347</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="G14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.90129870129870127</v>
+      </c>
+      <c r="I14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2">
+        <v>593</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="G15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
+        <f t="shared" si="0"/>
+        <v>1.5402597402597402</v>
+      </c>
+      <c r="I15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1409</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="G16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="7">
+        <f t="shared" si="0"/>
+        <v>3.6597402597402597</v>
+      </c>
+      <c r="I16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42DFD716-EFB0-4289-B6D0-CCC044E8C380}">
   <dimension ref="A1:K24"/>
